--- a/ArcTest.xlsx
+++ b/ArcTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Group 10\git\KatalonStudio\ArcWithKatalonStudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Group 10\git\USGBCArc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0D74C87C-748C-48D8-9976-CCF2AE0E8693}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{637772B0-6974-40D3-96E8-548EBBC40CD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USBuildingProject" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="BuildingIndiaProject" sheetId="25" r:id="rId18"/>
     <sheet name="CityIndiaProject" sheetId="26" r:id="rId19"/>
     <sheet name="CommunityIndiaProject" sheetId="27" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="33" r:id="rId21"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="688">
   <si>
     <t>Project Name</t>
   </si>
@@ -1232,9 +1233,6 @@
   </si>
   <si>
     <t>1000151082</t>
-  </si>
-  <si>
-    <t>1000151216</t>
   </si>
   <si>
     <t>1000151268</t>
@@ -2088,21 +2086,12 @@
     <t>1000074828</t>
   </si>
   <si>
-    <t>0011016687</t>
-  </si>
-  <si>
     <t>1000152179</t>
   </si>
   <si>
-    <t>1000152180</t>
-  </si>
-  <si>
     <t>100004</t>
   </si>
   <si>
-    <t>1000075067</t>
-  </si>
-  <si>
     <t>1000075068</t>
   </si>
   <si>
@@ -2112,37 +2101,37 @@
     <t>1000075081</t>
   </si>
   <si>
-    <t>1000075087</t>
-  </si>
-  <si>
     <t>1000075095</t>
   </si>
   <si>
-    <t>1000075131</t>
-  </si>
-  <si>
-    <t>0011084606</t>
-  </si>
-  <si>
-    <t>0011084607</t>
-  </si>
-  <si>
-    <t>1000075159</t>
-  </si>
-  <si>
     <t>1000075160</t>
   </si>
   <si>
     <t>1000152346</t>
   </si>
   <si>
-    <t>1000152347</t>
-  </si>
-  <si>
-    <t>1000152349</t>
-  </si>
-  <si>
-    <t>0011018389</t>
+    <t>1000075328</t>
+  </si>
+  <si>
+    <t>1000075329</t>
+  </si>
+  <si>
+    <t>0011085032</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>1000075330</t>
+  </si>
+  <si>
+    <t>0011085033</t>
   </si>
 </sst>
 </file>
@@ -2933,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3066,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -3134,7 +3123,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -3211,7 +3200,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -3249,7 +3238,7 @@
         <v>42</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
@@ -3281,7 +3270,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -3346,7 +3335,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -3414,7 +3403,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="113" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" s="109" t="s">
         <v>13</v>
@@ -3456,7 +3445,7 @@
         <v>109</v>
       </c>
       <c r="O7" s="114" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P7" s="109" t="s">
         <v>30</v>
@@ -3761,18 +3750,18 @@
       </c>
       <c r="BP1" s="107"/>
       <c r="BQ1" s="108" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR1" s="108" t="s">
         <v>510</v>
-      </c>
-      <c r="BR1" s="108" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>40</v>
@@ -3850,7 +3839,7 @@
         <v>30</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AC2" s="74" t="s">
         <v>327</v>
@@ -3862,10 +3851,10 @@
         <v>329</v>
       </c>
       <c r="AH2" s="92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>44</v>
@@ -3964,10 +3953,10 @@
         <v>230</v>
       </c>
       <c r="BQ2" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="BR2" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="BR2" s="9" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
@@ -4047,7 +4036,7 @@
         <v>30</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AC3" s="74" t="s">
         <v>292</v>
@@ -4065,19 +4054,19 @@
         <v>295</v>
       </c>
       <c r="AH3" s="93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AI3" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>494</v>
       </c>
       <c r="AK3" s="9" t="s">
         <v>329</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM3" s="95">
         <v>0.42470000000000002</v>
@@ -4223,7 +4212,7 @@
         <v>30</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AC4" s="74" t="s">
         <v>327</v>
@@ -4235,19 +4224,19 @@
         <v>329</v>
       </c>
       <c r="AH4" s="96" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>188</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AK4" s="9" t="s">
         <v>329</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM4" s="9">
         <v>0</v>
@@ -4309,7 +4298,7 @@
         <v>30</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC5" s="74" t="s">
         <v>292</v>
@@ -4327,16 +4316,16 @@
         <v>312</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AI5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AL5" s="9" t="s">
         <v>232</v>
@@ -4419,7 +4408,7 @@
         <v>304</v>
       </c>
       <c r="AH6" s="98" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AI6" s="9" t="s">
         <v>232</v>
@@ -4428,10 +4417,10 @@
         <v>248</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AL6" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AM6" s="9">
         <v>0.42009999999999997</v>
@@ -4493,7 +4482,7 @@
         <v>30</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AC7" s="74" t="s">
         <v>327</v>
@@ -4505,22 +4494,22 @@
         <v>329</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>188</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AK7" s="9" t="s">
         <v>188</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
@@ -4597,19 +4586,19 @@
         <v>325</v>
       </c>
       <c r="AH8" s="92" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AK8" s="9" t="s">
         <v>329</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM8" s="9">
         <v>0.29299999999999998</v>
@@ -4671,7 +4660,7 @@
         <v>16</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AC9" s="74" t="s">
         <v>292</v>
@@ -4689,7 +4678,7 @@
         <v>319</v>
       </c>
       <c r="AH9" s="99" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AI9" s="9" t="s">
         <v>253</v>
@@ -4698,7 +4687,7 @@
         <v>253</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AL9" s="9" t="s">
         <v>231</v>
@@ -4902,10 +4891,10 @@
         <v>346</v>
       </c>
       <c r="Y14" s="104" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Z14" s="105" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA14" s="104">
         <f>SUM(AA2:AA10)</f>
@@ -4919,7 +4908,7 @@
       </c>
       <c r="Y15" s="104"/>
       <c r="Z15" s="105" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AA15" s="104">
         <f>SUM(AA1:AA6)</f>
@@ -4944,25 +4933,25 @@
         <v>25.375</v>
       </c>
       <c r="AB16" s="104" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AH16" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="AI16" s="104" t="s">
+        <v>496</v>
+      </c>
+      <c r="AJ16" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="AK16" s="104" t="s">
         <v>500</v>
       </c>
-      <c r="AI16" s="104" t="s">
-        <v>497</v>
-      </c>
-      <c r="AJ16" s="104" t="s">
-        <v>499</v>
-      </c>
-      <c r="AK16" s="104" t="s">
+      <c r="AL16" s="104" t="s">
         <v>501</v>
       </c>
-      <c r="AL16" s="104" t="s">
-        <v>502</v>
-      </c>
       <c r="AM16" s="104" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="10:39" x14ac:dyDescent="0.25">
@@ -4979,16 +4968,16 @@
         <v>30</v>
       </c>
       <c r="AB17" s="105" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AH17" s="105" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AI17" s="104" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ17" s="105" t="s">
         <v>493</v>
-      </c>
-      <c r="AJ17" s="105" t="s">
-        <v>494</v>
       </c>
       <c r="AK17" s="105" t="s">
         <v>188</v>
@@ -4997,7 +4986,7 @@
         <v>232</v>
       </c>
       <c r="AM17" s="104" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="10:39" x14ac:dyDescent="0.25">
@@ -5017,7 +5006,7 @@
         <v>329</v>
       </c>
       <c r="AH18" s="105" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AI18" s="104" t="s">
         <v>329</v>
@@ -5055,7 +5044,7 @@
         <v>25</v>
       </c>
       <c r="AB19" s="104" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH19" s="105" t="s">
         <v>233</v>
@@ -5070,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="AL19" s="105" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM19" s="104" t="s">
         <v>44</v>
@@ -5619,7 +5608,7 @@
     <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.09375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
@@ -5687,7 +5676,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>69</v>
@@ -5705,31 +5694,31 @@
         <v>237</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I2" s="53" t="s">
         <v>71</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L2" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>411</v>
-      </c>
       <c r="N2" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P2" s="53" t="s">
         <v>184</v>
@@ -5743,7 +5732,7 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>69</v>
@@ -5761,31 +5750,31 @@
         <v>237</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L3" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>411</v>
-      </c>
       <c r="N3" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="P3" s="53" t="s">
         <v>184</v>
@@ -5799,7 +5788,7 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>69</v>
@@ -5817,28 +5806,28 @@
         <v>237</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I4" s="53" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L4" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M4" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>411</v>
-      </c>
       <c r="N4" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="53" t="s">
@@ -6059,7 +6048,7 @@
     <col min="10" max="10" customWidth="true" style="78" width="15.140625" collapsed="true"/>
     <col min="11" max="12" customWidth="true" style="78" width="14.42578125" collapsed="true"/>
     <col min="13" max="14" style="78" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="78" width="13.09375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="78" width="13.140625" collapsed="true"/>
     <col min="16" max="17" style="78" width="9.140625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="78" width="9.85546875" collapsed="true"/>
     <col min="19" max="19" style="78" width="9.140625" collapsed="true"/>
@@ -6132,7 +6121,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>61</v>
@@ -6150,31 +6139,31 @@
         <v>237</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I2" s="53" t="s">
         <v>71</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L2" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>411</v>
-      </c>
       <c r="N2" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P2" s="42" t="s">
         <v>184</v>
@@ -6197,7 +6186,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>61</v>
@@ -6215,28 +6204,28 @@
         <v>237</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L3" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>411</v>
-      </c>
       <c r="N3" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42" t="s">
@@ -6253,7 +6242,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>61</v>
@@ -6271,28 +6260,28 @@
         <v>237</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I4" s="53" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L4" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M4" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>411</v>
-      </c>
       <c r="N4" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O4" s="40"/>
       <c r="P4" s="42" t="s">
@@ -6348,22 +6337,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="80" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="C1" s="80" t="s">
         <v>451</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="D1" s="80" t="s">
         <v>452</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="E1" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="F1" s="80" t="s">
         <v>454</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>455</v>
       </c>
       <c r="G1" s="80" t="s">
         <v>9</v>
@@ -6378,10 +6367,10 @@
         <v>12</v>
       </c>
       <c r="K1" s="80" t="s">
+        <v>455</v>
+      </c>
+      <c r="L1" s="80" t="s">
         <v>456</v>
-      </c>
-      <c r="L1" s="80" t="s">
-        <v>457</v>
       </c>
       <c r="M1" s="80" t="s">
         <v>356</v>
@@ -6390,207 +6379,207 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="D2" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="F2" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K2" s="56" t="s">
         <v>446</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>447</v>
       </c>
       <c r="L2" s="56" t="s">
         <v>364</v>
       </c>
       <c r="M2" s="81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="C3" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="D3" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="F3" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K3" s="56" t="s">
         <v>446</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>447</v>
       </c>
       <c r="L3" s="56" t="s">
         <v>364</v>
       </c>
       <c r="M3" s="81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="C4" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="D4" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="F4" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K4" s="56" t="s">
         <v>446</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>447</v>
       </c>
       <c r="L4" s="56" t="s">
         <v>364</v>
       </c>
       <c r="M4" s="81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="C5" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="D5" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="F5" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K5" s="56" t="s">
         <v>446</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>447</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>364</v>
       </c>
       <c r="M5" s="81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="C6" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="D6" s="81" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="F6" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K6" s="56" t="s">
         <v>446</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>462</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>447</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>364</v>
       </c>
       <c r="M6" s="81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6749,7 +6738,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>13</v>
@@ -6770,25 +6759,25 @@
         <v>237</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I2" s="53" t="s">
         <v>392</v>
       </c>
       <c r="J2" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K2" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K2" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L2" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M2" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N2" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O2" s="60"/>
       <c r="Y2" s="53" t="s">
@@ -6806,7 +6795,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>13</v>
@@ -6827,25 +6816,25 @@
         <v>237</v>
       </c>
       <c r="H3" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="I3" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>420</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N3" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P3" s="51" t="s">
         <v>110</v>
@@ -6883,7 +6872,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>13</v>
@@ -6902,23 +6891,23 @@
         <v>237</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I4" s="61"/>
       <c r="J4" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K4" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K4" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L4" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M4" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N4" s="59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
@@ -6950,7 +6939,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>13</v>
@@ -6971,25 +6960,25 @@
         <v>237</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>392</v>
       </c>
       <c r="J5" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K5" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L5" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M5" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M5" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N5" s="59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P5" s="61"/>
       <c r="Q5" s="61"/>
@@ -7015,7 +7004,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>13</v>
@@ -7036,25 +7025,25 @@
         <v>237</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I6" s="53" t="s">
         <v>392</v>
       </c>
       <c r="J6" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K6" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K6" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L6" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M6" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M6" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N6" s="59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O6" s="51" t="s">
         <v>395</v>
@@ -7083,7 +7072,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="116" t="s">
         <v>13</v>
@@ -7104,28 +7093,28 @@
         <v>237</v>
       </c>
       <c r="H7" s="121" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I7" s="117" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="122" t="s">
+        <v>422</v>
+      </c>
+      <c r="K7" s="122" t="s">
         <v>423</v>
       </c>
-      <c r="K7" s="122" t="s">
-        <v>424</v>
-      </c>
       <c r="L7" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="M7" s="121" t="s">
         <v>420</v>
       </c>
-      <c r="M7" s="121" t="s">
-        <v>421</v>
-      </c>
       <c r="N7" s="122" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O7" s="123" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P7" s="116" t="s">
         <v>30</v>
@@ -7274,7 +7263,7 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>61</v>
@@ -7292,7 +7281,7 @@
         <v>237</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>22</v>
@@ -7301,22 +7290,22 @@
         <v>64</v>
       </c>
       <c r="J2" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K2" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K2" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L2" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M2" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N2" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="P2" s="42" t="s">
         <v>184</v>
@@ -7339,7 +7328,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>61</v>
@@ -7357,28 +7346,28 @@
         <v>237</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
       <c r="J3" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K3" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K3" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L3" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N3" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42" t="s">
@@ -7395,7 +7384,7 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>61</v>
@@ -7413,28 +7402,28 @@
         <v>237</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K4" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K4" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L4" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M4" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N4" s="59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O4" s="40"/>
       <c r="P4" s="42" t="s">
@@ -7546,7 +7535,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>69</v>
@@ -7564,7 +7553,7 @@
         <v>237</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>22</v>
@@ -7573,22 +7562,22 @@
         <v>64</v>
       </c>
       <c r="J2" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K2" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K2" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L2" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M2" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N2" s="148" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P2" s="53" t="s">
         <v>184</v>
@@ -7602,7 +7591,7 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>69</v>
@@ -7620,28 +7609,28 @@
         <v>237</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I3" s="42" t="s">
         <v>65</v>
       </c>
       <c r="J3" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K3" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K3" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L3" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N3" s="148" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="53" t="s">
@@ -7656,7 +7645,7 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>69</v>
@@ -7674,28 +7663,28 @@
         <v>237</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K4" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="K4" s="59" t="s">
-        <v>424</v>
-      </c>
       <c r="L4" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M4" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>421</v>
-      </c>
       <c r="N4" s="148" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="53" t="s">
@@ -7859,7 +7848,7 @@
     </row>
     <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>13</v>
@@ -7880,25 +7869,25 @@
         <v>237</v>
       </c>
       <c r="H2" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>433</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>432</v>
+      </c>
+      <c r="K2" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="I2" s="73" t="s">
-        <v>434</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>433</v>
-      </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M2" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="M2" s="44" t="s">
+      <c r="N2" s="73" t="s">
         <v>431</v>
-      </c>
-      <c r="N2" s="73" t="s">
-        <v>432</v>
       </c>
       <c r="O2" s="82"/>
       <c r="P2" s="44"/>
@@ -7933,7 +7922,7 @@
     </row>
     <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>13</v>
@@ -7954,25 +7943,25 @@
         <v>237</v>
       </c>
       <c r="H3" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="K3" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="I3" s="73" t="s">
-        <v>422</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>435</v>
-      </c>
-      <c r="K3" s="44" t="s">
+      <c r="L3" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M3" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="L3" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>431</v>
-      </c>
       <c r="N3" s="73" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O3" s="44"/>
       <c r="P3" s="44" t="s">
@@ -8021,7 +8010,7 @@
     </row>
     <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>13</v>
@@ -8040,26 +8029,26 @@
         <v>237</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I4" s="83"/>
       <c r="J4" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K4" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M4" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="L4" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>431</v>
-      </c>
       <c r="N4" s="73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O4" s="73" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="P4" s="83"/>
       <c r="Q4" s="83"/>
@@ -8097,7 +8086,7 @@
     </row>
     <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>13</v>
@@ -8118,25 +8107,25 @@
         <v>237</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I5" s="73" t="s">
         <v>392</v>
       </c>
       <c r="J5" s="84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K5" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M5" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>431</v>
-      </c>
       <c r="N5" s="73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O5" s="44"/>
       <c r="P5" s="83"/>
@@ -8171,7 +8160,7 @@
     </row>
     <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>13</v>
@@ -8192,25 +8181,25 @@
         <v>237</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I6" s="73" t="s">
         <v>392</v>
       </c>
       <c r="J6" s="84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K6" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M6" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="L6" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="M6" s="44" t="s">
-        <v>431</v>
-      </c>
       <c r="N6" s="73" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O6" s="44" t="s">
         <v>395</v>
@@ -8247,7 +8236,7 @@
     </row>
     <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B7" s="124" t="s">
         <v>13</v>
@@ -8268,28 +8257,28 @@
         <v>237</v>
       </c>
       <c r="H7" s="129" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I7" s="125" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="131" t="s">
+        <v>516</v>
+      </c>
+      <c r="K7" s="129" t="s">
+        <v>429</v>
+      </c>
+      <c r="L7" s="129" t="s">
+        <v>428</v>
+      </c>
+      <c r="M7" s="129" t="s">
+        <v>430</v>
+      </c>
+      <c r="N7" s="130" t="s">
         <v>517</v>
       </c>
-      <c r="K7" s="129" t="s">
-        <v>430</v>
-      </c>
-      <c r="L7" s="129" t="s">
-        <v>429</v>
-      </c>
-      <c r="M7" s="129" t="s">
-        <v>431</v>
-      </c>
-      <c r="N7" s="130" t="s">
-        <v>518</v>
-      </c>
       <c r="O7" s="132" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P7" s="124" t="s">
         <v>30</v>
@@ -8439,7 +8428,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>61</v>
@@ -8457,31 +8446,31 @@
         <v>237</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I2" s="56" t="s">
         <v>64</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K2" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M2" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="L2" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="M2" s="54" t="s">
+      <c r="N2" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="56" t="s">
-        <v>432</v>
-      </c>
       <c r="O2" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P2" s="42" t="s">
         <v>184</v>
@@ -8514,7 +8503,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>61</v>
@@ -8532,31 +8521,31 @@
         <v>237</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I3" s="73" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K3" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M3" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="L3" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>431</v>
-      </c>
       <c r="N3" s="56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P3" s="42" t="s">
         <v>184</v>
@@ -8587,7 +8576,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>61</v>
@@ -8605,28 +8594,28 @@
         <v>237</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I4" s="73" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K4" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M4" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="L4" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>431</v>
-      </c>
       <c r="N4" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O4" s="40">
         <v>1000073599</v>
@@ -8796,7 +8785,7 @@
         <v>394</v>
       </c>
       <c r="P1" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q1" s="64" t="s">
         <v>120</v>
@@ -8807,7 +8796,7 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>69</v>
@@ -8822,10 +8811,10 @@
         <v>391</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2" s="73" t="s">
         <v>185</v>
@@ -8834,36 +8823,36 @@
         <v>64</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K2" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M2" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="L2" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="M2" s="44" t="s">
+      <c r="N2" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="73" t="s">
-        <v>432</v>
-      </c>
       <c r="O2" s="44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P2" s="73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q2" s="73" t="s">
         <v>121</v>
       </c>
       <c r="R2" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>69</v>
@@ -8878,10 +8867,10 @@
         <v>391</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H3" s="73" t="s">
         <v>186</v>
@@ -8890,36 +8879,36 @@
         <v>65</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K3" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M3" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="L3" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="M3" s="44" t="s">
+      <c r="N3" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="N3" s="73" t="s">
-        <v>432</v>
-      </c>
       <c r="O3" s="44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P3" s="73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q3" s="73" t="s">
         <v>121</v>
       </c>
       <c r="R3" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>69</v>
@@ -8934,10 +8923,10 @@
         <v>391</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>187</v>
@@ -8946,31 +8935,31 @@
         <v>68</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K4" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="M4" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="L4" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="M4" s="44" t="s">
+      <c r="N4" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="N4" s="73" t="s">
-        <v>432</v>
-      </c>
       <c r="O4" s="44" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P4" s="73" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="73" t="s">
         <v>121</v>
       </c>
       <c r="R4" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8979,6 +8968,18 @@
     <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-1300-000002000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67C61A4-1539-4289-A55B-B57B6D466221}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9075,7 +9076,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>61</v>
@@ -9102,7 +9103,7 @@
         <v>64</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K2" s="84" t="s">
         <v>176</v>
@@ -9114,10 +9115,10 @@
         <v>176</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O2" s="90" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="P2" s="86" t="s">
         <v>184</v>
@@ -9134,7 +9135,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>61</v>
@@ -9161,7 +9162,7 @@
         <v>65</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K3" s="84" t="s">
         <v>176</v>
@@ -9173,10 +9174,10 @@
         <v>176</v>
       </c>
       <c r="N3" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O3" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="P3" s="86" t="s">
         <v>184</v>
@@ -9190,7 +9191,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>61</v>
@@ -9217,7 +9218,7 @@
         <v>68</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K4" s="84" t="s">
         <v>176</v>
@@ -9229,7 +9230,7 @@
         <v>176</v>
       </c>
       <c r="N4" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P4" s="86" t="s">
         <v>184</v>
@@ -9346,7 +9347,7 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>69</v>
@@ -9367,13 +9368,13 @@
         <v>40</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>71</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K2" s="49" t="s">
         <v>176</v>
@@ -9385,10 +9386,10 @@
         <v>176</v>
       </c>
       <c r="N2" s="145" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="P2" s="48" t="s">
         <v>184</v>
@@ -9402,7 +9403,7 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>69</v>
@@ -9423,13 +9424,13 @@
         <v>40</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K3" s="49" t="s">
         <v>176</v>
@@ -9441,9 +9442,11 @@
         <v>176</v>
       </c>
       <c r="N3" s="145" t="s">
-        <v>463</v>
-      </c>
-      <c r="O3" s="46"/>
+        <v>462</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>680</v>
+      </c>
       <c r="P3" s="48" t="s">
         <v>184</v>
       </c>
@@ -9456,7 +9459,7 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>69</v>
@@ -9477,13 +9480,13 @@
         <v>40</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K4" s="49" t="s">
         <v>176</v>
@@ -9495,10 +9498,10 @@
         <v>176</v>
       </c>
       <c r="N4" s="145" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="P4" s="48" t="s">
         <v>184</v>
@@ -9553,7 +9556,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>78</v>
@@ -9598,24 +9601,24 @@
         <v>104</v>
       </c>
       <c r="P1" s="139" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q1" s="139" t="s">
         <v>24</v>
       </c>
       <c r="R1" s="139" t="s">
+        <v>519</v>
+      </c>
+      <c r="S1" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="S1" s="139" t="s">
+      <c r="T1" s="139" t="s">
         <v>521</v>
-      </c>
-      <c r="T1" s="139" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>238</v>
@@ -9667,7 +9670,7 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="88"/>
@@ -9681,19 +9684,19 @@
         <v>237</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J3" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="K3" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="L3" s="73" t="s">
         <v>430</v>
       </c>
-      <c r="K3" s="73" t="s">
-        <v>429</v>
-      </c>
-      <c r="L3" s="73" t="s">
-        <v>431</v>
-      </c>
       <c r="M3" s="73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="9" t="s">
@@ -9705,7 +9708,7 @@
       </c>
       <c r="R3" s="133"/>
       <c r="S3" s="133" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="T3" s="133"/>
     </row>
@@ -9853,27 +9856,27 @@
         <v>105</v>
       </c>
       <c r="P6" s="140" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q6" s="133" t="s">
         <v>129</v>
       </c>
       <c r="R6" s="133" t="s">
+        <v>523</v>
+      </c>
+      <c r="S6" s="133" t="s">
         <v>524</v>
       </c>
-      <c r="S6" s="133" t="s">
+      <c r="T6" s="135" t="s">
         <v>525</v>
-      </c>
-      <c r="T6" s="135" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O7" s="143" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P7" s="143" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q7" s="143" t="s">
         <v>122</v>
@@ -9881,17 +9884,17 @@
       <c r="R7" s="143"/>
       <c r="S7" s="143"/>
       <c r="T7" s="144" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="U7" s="143"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J8" s="9"/>
       <c r="O8" s="143" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P8" s="143" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q8" s="143" t="s">
         <v>122</v>
@@ -9899,7 +9902,7 @@
       <c r="R8" s="143"/>
       <c r="S8" s="143"/>
       <c r="T8" s="144" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="U8" s="143"/>
     </row>
@@ -10159,7 +10162,7 @@
     </row>
     <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" s="121" t="s">
         <v>13</v>
@@ -10180,25 +10183,25 @@
         <v>237</v>
       </c>
       <c r="H2" s="121" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I2" s="53" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L2" s="121" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="M2" s="121" t="s">
-        <v>411</v>
-      </c>
       <c r="N2" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O2" s="60"/>
       <c r="P2" s="121"/>
@@ -10231,7 +10234,7 @@
     </row>
     <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B3" s="121" t="s">
         <v>13</v>
@@ -10252,25 +10255,25 @@
         <v>237</v>
       </c>
       <c r="H3" s="121" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I3" s="53" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L3" s="121" t="s">
+        <v>409</v>
+      </c>
+      <c r="M3" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="M3" s="121" t="s">
-        <v>411</v>
-      </c>
       <c r="N3" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O3" s="121"/>
       <c r="P3" s="121" t="s">
@@ -10317,7 +10320,7 @@
     </row>
     <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" s="121" t="s">
         <v>13</v>
@@ -10336,23 +10339,23 @@
         <v>237</v>
       </c>
       <c r="H4" s="121" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I4" s="61"/>
       <c r="J4" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L4" s="121" t="s">
+        <v>409</v>
+      </c>
+      <c r="M4" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="M4" s="121" t="s">
-        <v>411</v>
-      </c>
       <c r="N4" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O4" s="121"/>
       <c r="P4" s="61"/>
@@ -10389,7 +10392,7 @@
     </row>
     <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="121" t="s">
         <v>13</v>
@@ -10410,25 +10413,25 @@
         <v>237</v>
       </c>
       <c r="H5" s="121" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L5" s="121" t="s">
+        <v>409</v>
+      </c>
+      <c r="M5" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="M5" s="121" t="s">
-        <v>411</v>
-      </c>
       <c r="N5" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O5" s="121"/>
       <c r="P5" s="61"/>
@@ -10461,7 +10464,7 @@
     </row>
     <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" s="121" t="s">
         <v>13</v>
@@ -10482,25 +10485,25 @@
         <v>237</v>
       </c>
       <c r="H6" s="121" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I6" s="53" t="s">
         <v>392</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L6" s="121" t="s">
+        <v>409</v>
+      </c>
+      <c r="M6" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="M6" s="121" t="s">
-        <v>411</v>
-      </c>
       <c r="N6" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O6" s="121" t="s">
         <v>395</v>
@@ -10535,7 +10538,7 @@
     </row>
     <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7" s="121" t="s">
         <v>13</v>
@@ -10556,28 +10559,28 @@
         <v>237</v>
       </c>
       <c r="H7" s="121" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I7" s="53" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L7" s="121" t="s">
+        <v>409</v>
+      </c>
+      <c r="M7" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="M7" s="121" t="s">
-        <v>411</v>
-      </c>
       <c r="N7" s="147" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O7" s="146" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P7" s="121" t="s">
         <v>30</v>
@@ -10636,8 +10639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10795,65 +10798,65 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="74">
-        <v>0.98</v>
-      </c>
-      <c r="B2" s="74">
-        <v>0.66</v>
-      </c>
-      <c r="C2" s="74">
-        <v>1.22</v>
-      </c>
-      <c r="D2" s="74">
-        <v>0.99</v>
-      </c>
-      <c r="E2" s="74">
-        <v>0.33</v>
-      </c>
-      <c r="F2" s="74">
-        <v>0.98</v>
-      </c>
-      <c r="G2" s="74">
-        <v>0.66</v>
-      </c>
-      <c r="H2" s="74">
-        <v>1.22</v>
-      </c>
-      <c r="I2" s="74">
-        <v>0.99</v>
-      </c>
-      <c r="J2" s="74">
-        <v>0.33</v>
-      </c>
-      <c r="K2" s="74">
-        <v>0.98</v>
-      </c>
-      <c r="L2" s="74">
-        <v>0.66</v>
-      </c>
-      <c r="M2" s="74">
-        <v>1.22</v>
-      </c>
-      <c r="N2" s="74">
-        <v>0.99</v>
-      </c>
-      <c r="O2" s="74">
-        <v>0.33</v>
-      </c>
-      <c r="P2" s="74">
-        <v>0.98</v>
-      </c>
-      <c r="Q2" s="74">
-        <v>0.66</v>
-      </c>
-      <c r="R2" s="74">
-        <v>1.22</v>
-      </c>
-      <c r="S2" s="74">
-        <v>0.99</v>
-      </c>
-      <c r="T2" s="74">
-        <v>0.33</v>
+      <c r="A2" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>683</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>684</v>
+      </c>
+      <c r="D2" s="144" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" s="144" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="G2" s="144" t="s">
+        <v>683</v>
+      </c>
+      <c r="H2" s="144" t="s">
+        <v>684</v>
+      </c>
+      <c r="I2" s="144" t="s">
+        <v>580</v>
+      </c>
+      <c r="J2" s="144" t="s">
+        <v>685</v>
+      </c>
+      <c r="K2" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="L2" s="144" t="s">
+        <v>683</v>
+      </c>
+      <c r="M2" s="144" t="s">
+        <v>684</v>
+      </c>
+      <c r="N2" s="144" t="s">
+        <v>580</v>
+      </c>
+      <c r="O2" s="144" t="s">
+        <v>685</v>
+      </c>
+      <c r="P2" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q2" s="144" t="s">
+        <v>683</v>
+      </c>
+      <c r="R2" s="144" t="s">
+        <v>684</v>
+      </c>
+      <c r="S2" s="144" t="s">
+        <v>580</v>
+      </c>
+      <c r="T2" s="144" t="s">
+        <v>685</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>138</v>
@@ -10883,10 +10886,10 @@
         <v>0.73</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>138</v>
@@ -10923,64 +10926,64 @@
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="74">
+      <c r="A3" s="143">
         <v>0.38</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="143">
         <v>0.66</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="143">
         <v>1.22</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="143">
         <v>0.99</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="143">
         <v>0.33</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="143">
         <v>0.98</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="143">
         <v>0.66</v>
       </c>
-      <c r="H3" s="74">
+      <c r="H3" s="143">
         <v>1.22</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="143">
         <v>0.99</v>
       </c>
-      <c r="J3" s="74">
+      <c r="J3" s="143">
         <v>0.33</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="143">
         <v>0.98</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="143">
         <v>0.66</v>
       </c>
-      <c r="M3" s="74">
+      <c r="M3" s="143">
         <v>1.22</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="143">
         <v>0.99</v>
       </c>
-      <c r="O3" s="74">
+      <c r="O3" s="143">
         <v>0.33</v>
       </c>
-      <c r="P3" s="74">
+      <c r="P3" s="143">
         <v>0.98</v>
       </c>
-      <c r="Q3" s="74">
+      <c r="Q3" s="143">
         <v>0.66</v>
       </c>
-      <c r="R3" s="74">
+      <c r="R3" s="143">
         <v>1.22</v>
       </c>
-      <c r="S3" s="74">
+      <c r="S3" s="143">
         <v>0.99</v>
       </c>
-      <c r="T3" s="74">
+      <c r="T3" s="143">
         <v>0.33</v>
       </c>
       <c r="U3" s="74">
@@ -11008,7 +11011,7 @@
         <v>33</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AE3" s="74">
         <v>22</v>
@@ -11045,64 +11048,64 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="74">
+      <c r="A4" s="143">
         <v>0.32</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="143">
         <v>0.66</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="143">
         <v>1.22</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="143">
         <v>0.99</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="143">
         <v>0.33</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="143">
         <v>0.98</v>
       </c>
-      <c r="G4" s="74">
+      <c r="G4" s="143">
         <v>0.66</v>
       </c>
-      <c r="H4" s="74">
+      <c r="H4" s="143">
         <v>1.22</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="143">
         <v>0.99</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="143">
         <v>0.33</v>
       </c>
-      <c r="K4" s="74">
+      <c r="K4" s="143">
         <v>0.98</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="143">
         <v>0.66</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="143">
         <v>1.22</v>
       </c>
-      <c r="N4" s="74">
+      <c r="N4" s="143">
         <v>0.99</v>
       </c>
-      <c r="O4" s="74">
+      <c r="O4" s="143">
         <v>0.33</v>
       </c>
-      <c r="P4" s="74">
+      <c r="P4" s="143">
         <v>0.98</v>
       </c>
-      <c r="Q4" s="74">
+      <c r="Q4" s="143">
         <v>0.66</v>
       </c>
-      <c r="R4" s="74">
+      <c r="R4" s="143">
         <v>1.22</v>
       </c>
-      <c r="S4" s="74">
+      <c r="S4" s="143">
         <v>0.99</v>
       </c>
-      <c r="T4" s="74">
+      <c r="T4" s="143">
         <v>0.33</v>
       </c>
       <c r="U4" s="74">
@@ -11167,64 +11170,64 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
+      <c r="A5" s="143">
         <v>0.48</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="143">
         <v>0.66</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="143">
         <v>1.22</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="143">
         <v>0.99</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="143">
         <v>0.33</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="143">
         <v>0.98</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="143">
         <v>0.66</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="143">
         <v>1.22</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="143">
         <v>0.99</v>
       </c>
-      <c r="J5" s="74">
+      <c r="J5" s="143">
         <v>0.33</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="143">
         <v>0.98</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="143">
         <v>0.66</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M5" s="143">
         <v>1.22</v>
       </c>
-      <c r="N5" s="74">
+      <c r="N5" s="143">
         <v>0.99</v>
       </c>
-      <c r="O5" s="74">
+      <c r="O5" s="143">
         <v>0.33</v>
       </c>
-      <c r="P5" s="74">
+      <c r="P5" s="143">
         <v>0.98</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="143">
         <v>0.66</v>
       </c>
-      <c r="R5" s="74">
+      <c r="R5" s="143">
         <v>1.22</v>
       </c>
-      <c r="S5" s="74">
+      <c r="S5" s="143">
         <v>0.99</v>
       </c>
-      <c r="T5" s="74">
+      <c r="T5" s="143">
         <v>0.33</v>
       </c>
       <c r="U5" s="74">
@@ -11330,91 +11333,91 @@
         <v>93</v>
       </c>
       <c r="I1" s="141" t="s">
+        <v>526</v>
+      </c>
+      <c r="J1" s="141" t="s">
         <v>527</v>
       </c>
-      <c r="J1" s="141" t="s">
+      <c r="K1" s="143" t="s">
         <v>528</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="L1" s="143" t="s">
         <v>529</v>
       </c>
-      <c r="L1" s="143" t="s">
+      <c r="M1" s="143" t="s">
         <v>530</v>
       </c>
-      <c r="M1" s="143" t="s">
+      <c r="N1" s="143" t="s">
         <v>531</v>
       </c>
-      <c r="N1" s="143" t="s">
+      <c r="O1" s="143" t="s">
         <v>532</v>
       </c>
-      <c r="O1" s="143" t="s">
+      <c r="P1" s="143" t="s">
         <v>533</v>
       </c>
-      <c r="P1" s="143" t="s">
+      <c r="Q1" s="143" t="s">
         <v>534</v>
       </c>
-      <c r="Q1" s="143" t="s">
+      <c r="R1" s="143" t="s">
         <v>535</v>
       </c>
-      <c r="R1" s="143" t="s">
+      <c r="S1" s="143" t="s">
         <v>536</v>
       </c>
-      <c r="S1" s="143" t="s">
+      <c r="T1" s="143" t="s">
         <v>537</v>
       </c>
-      <c r="T1" s="143" t="s">
+      <c r="U1" s="143" t="s">
         <v>538</v>
       </c>
-      <c r="U1" s="143" t="s">
+      <c r="V1" s="143" t="s">
         <v>539</v>
       </c>
-      <c r="V1" s="143" t="s">
+      <c r="W1" s="143" t="s">
         <v>540</v>
       </c>
-      <c r="W1" s="143" t="s">
+      <c r="X1" s="143" t="s">
         <v>541</v>
       </c>
-      <c r="X1" s="143" t="s">
+      <c r="Y1" s="143" t="s">
         <v>542</v>
       </c>
-      <c r="Y1" s="143" t="s">
+      <c r="Z1" s="143" t="s">
         <v>543</v>
       </c>
-      <c r="Z1" s="143" t="s">
+      <c r="AA1" s="143" t="s">
         <v>544</v>
       </c>
-      <c r="AA1" s="143" t="s">
+      <c r="AB1" s="143" t="s">
         <v>545</v>
       </c>
-      <c r="AB1" s="143" t="s">
+      <c r="AC1" s="143" t="s">
         <v>546</v>
       </c>
-      <c r="AC1" s="143" t="s">
+      <c r="AD1" s="143" t="s">
         <v>547</v>
       </c>
-      <c r="AD1" s="143" t="s">
+      <c r="AE1" s="143" t="s">
         <v>548</v>
       </c>
-      <c r="AE1" s="143" t="s">
+      <c r="AF1" s="143" t="s">
         <v>549</v>
       </c>
-      <c r="AF1" s="143" t="s">
+      <c r="AG1" s="143" t="s">
         <v>550</v>
       </c>
-      <c r="AG1" s="143" t="s">
+      <c r="AH1" s="143" t="s">
         <v>551</v>
       </c>
-      <c r="AH1" s="143" t="s">
+      <c r="AI1" s="143" t="s">
         <v>552</v>
       </c>
-      <c r="AI1" s="143" t="s">
+      <c r="AJ1" s="143" t="s">
         <v>553</v>
       </c>
-      <c r="AJ1" s="143" t="s">
+      <c r="AK1" s="143" t="s">
         <v>554</v>
-      </c>
-      <c r="AK1" s="143" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
@@ -11457,73 +11460,73 @@
         <v>233</v>
       </c>
       <c r="O2" s="144" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P2" s="144" t="s">
         <v>231</v>
       </c>
       <c r="Q2" s="144" t="s">
+        <v>555</v>
+      </c>
+      <c r="R2" s="144" t="s">
         <v>556</v>
       </c>
-      <c r="R2" s="144" t="s">
+      <c r="S2" s="144" t="s">
         <v>557</v>
       </c>
-      <c r="S2" s="144" t="s">
+      <c r="T2" s="144" t="s">
         <v>558</v>
       </c>
-      <c r="T2" s="144" t="s">
+      <c r="U2" s="144" t="s">
         <v>559</v>
       </c>
-      <c r="U2" s="144" t="s">
+      <c r="V2" s="144" t="s">
         <v>560</v>
       </c>
-      <c r="V2" s="144" t="s">
+      <c r="W2" s="144" t="s">
         <v>561</v>
       </c>
-      <c r="W2" s="144" t="s">
+      <c r="X2" s="144" t="s">
         <v>562</v>
       </c>
-      <c r="X2" s="144" t="s">
+      <c r="Y2" s="144" t="s">
         <v>563</v>
       </c>
-      <c r="Y2" s="144" t="s">
+      <c r="Z2" s="144" t="s">
         <v>564</v>
       </c>
-      <c r="Z2" s="144" t="s">
+      <c r="AA2" s="144" t="s">
         <v>565</v>
       </c>
-      <c r="AA2" s="144" t="s">
+      <c r="AB2" s="144" t="s">
         <v>566</v>
-      </c>
-      <c r="AB2" s="144" t="s">
-        <v>567</v>
       </c>
       <c r="AC2" s="144" t="s">
         <v>232</v>
       </c>
       <c r="AD2" s="144" t="s">
+        <v>567</v>
+      </c>
+      <c r="AE2" s="144" t="s">
         <v>568</v>
       </c>
-      <c r="AE2" s="144" t="s">
+      <c r="AF2" s="144" t="s">
         <v>569</v>
       </c>
-      <c r="AF2" s="144" t="s">
+      <c r="AG2" s="144" t="s">
         <v>570</v>
       </c>
-      <c r="AG2" s="144" t="s">
+      <c r="AH2" s="144" t="s">
         <v>571</v>
-      </c>
-      <c r="AH2" s="144" t="s">
-        <v>572</v>
       </c>
       <c r="AI2" s="144" t="s">
         <v>99</v>
       </c>
       <c r="AJ2" s="144" t="s">
+        <v>572</v>
+      </c>
+      <c r="AK2" s="144" t="s">
         <v>573</v>
-      </c>
-      <c r="AK2" s="144" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -11554,90 +11557,90 @@
       <c r="I3" s="141"/>
       <c r="J3" s="141"/>
       <c r="K3" s="144" t="s">
+        <v>574</v>
+      </c>
+      <c r="L3" s="143" t="s">
         <v>575</v>
       </c>
-      <c r="L3" s="143" t="s">
+      <c r="M3" s="144" t="s">
         <v>576</v>
       </c>
-      <c r="M3" s="144" t="s">
+      <c r="N3" s="144" t="s">
+        <v>488</v>
+      </c>
+      <c r="O3" s="144" t="s">
         <v>577</v>
       </c>
-      <c r="N3" s="144" t="s">
-        <v>489</v>
-      </c>
-      <c r="O3" s="144" t="s">
+      <c r="P3" s="144" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q3" s="144" t="s">
         <v>578</v>
       </c>
-      <c r="P3" s="144" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q3" s="144" t="s">
+      <c r="R3" s="144" t="s">
         <v>579</v>
       </c>
-      <c r="R3" s="144" t="s">
+      <c r="S3" s="144" t="s">
         <v>580</v>
       </c>
-      <c r="S3" s="144" t="s">
+      <c r="T3" s="144" t="s">
         <v>581</v>
       </c>
-      <c r="T3" s="144" t="s">
+      <c r="U3" s="144" t="s">
         <v>582</v>
       </c>
-      <c r="U3" s="144" t="s">
+      <c r="V3" s="144" t="s">
         <v>583</v>
       </c>
-      <c r="V3" s="144" t="s">
+      <c r="W3" s="144" t="s">
         <v>584</v>
       </c>
-      <c r="W3" s="144" t="s">
+      <c r="X3" s="144" t="s">
         <v>585</v>
       </c>
-      <c r="X3" s="144" t="s">
+      <c r="Y3" s="144" t="s">
         <v>586</v>
       </c>
-      <c r="Y3" s="144" t="s">
+      <c r="Z3" s="144" t="s">
         <v>587</v>
       </c>
-      <c r="Z3" s="144" t="s">
+      <c r="AA3" s="144" t="s">
         <v>588</v>
       </c>
-      <c r="AA3" s="144" t="s">
+      <c r="AB3" s="144" t="s">
         <v>589</v>
       </c>
-      <c r="AB3" s="144" t="s">
+      <c r="AC3" s="144" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD3" s="144" t="s">
         <v>590</v>
       </c>
-      <c r="AC3" s="144" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD3" s="144" t="s">
+      <c r="AE3" s="144" t="s">
         <v>591</v>
       </c>
-      <c r="AE3" s="144" t="s">
+      <c r="AF3" s="144" t="s">
         <v>592</v>
       </c>
-      <c r="AF3" s="144" t="s">
+      <c r="AG3" s="144" t="s">
         <v>593</v>
       </c>
-      <c r="AG3" s="144" t="s">
+      <c r="AH3" s="144" t="s">
         <v>594</v>
       </c>
-      <c r="AH3" s="144" t="s">
+      <c r="AI3" s="144" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ3" s="144" t="s">
         <v>595</v>
       </c>
-      <c r="AI3" s="144" t="s">
-        <v>577</v>
-      </c>
-      <c r="AJ3" s="144" t="s">
+      <c r="AK3" s="144" t="s">
         <v>596</v>
-      </c>
-      <c r="AK3" s="144" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B4" s="141" t="s">
         <v>107</v>
@@ -11663,90 +11666,90 @@
       <c r="I4" s="141"/>
       <c r="J4" s="141"/>
       <c r="K4" s="144" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L4" s="143" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M4" s="144" t="s">
+        <v>598</v>
+      </c>
+      <c r="N4" s="144" t="s">
+        <v>473</v>
+      </c>
+      <c r="O4" s="144" t="s">
         <v>599</v>
-      </c>
-      <c r="N4" s="144" t="s">
-        <v>474</v>
-      </c>
-      <c r="O4" s="144" t="s">
-        <v>600</v>
       </c>
       <c r="P4" s="144" t="s">
         <v>232</v>
       </c>
       <c r="Q4" s="144" t="s">
+        <v>600</v>
+      </c>
+      <c r="R4" s="144" t="s">
         <v>601</v>
       </c>
-      <c r="R4" s="144" t="s">
+      <c r="S4" s="144" t="s">
         <v>602</v>
       </c>
-      <c r="S4" s="144" t="s">
+      <c r="T4" s="144" t="s">
         <v>603</v>
       </c>
-      <c r="T4" s="144" t="s">
+      <c r="U4" s="144" t="s">
         <v>604</v>
       </c>
-      <c r="U4" s="144" t="s">
+      <c r="V4" s="144" t="s">
         <v>605</v>
       </c>
-      <c r="V4" s="144" t="s">
+      <c r="W4" s="144" t="s">
         <v>606</v>
       </c>
-      <c r="W4" s="144" t="s">
+      <c r="X4" s="144" t="s">
         <v>607</v>
       </c>
-      <c r="X4" s="144" t="s">
+      <c r="Y4" s="144" t="s">
         <v>608</v>
       </c>
-      <c r="Y4" s="144" t="s">
+      <c r="Z4" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="Z4" s="144" t="s">
+      <c r="AA4" s="144" t="s">
         <v>610</v>
       </c>
-      <c r="AA4" s="144" t="s">
+      <c r="AB4" s="144" t="s">
         <v>611</v>
-      </c>
-      <c r="AB4" s="144" t="s">
-        <v>612</v>
       </c>
       <c r="AC4" s="144" t="s">
         <v>188</v>
       </c>
       <c r="AD4" s="144" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AE4" s="144" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF4" s="144" t="s">
         <v>613</v>
       </c>
-      <c r="AF4" s="144" t="s">
+      <c r="AG4" s="144" t="s">
         <v>614</v>
       </c>
-      <c r="AG4" s="144" t="s">
+      <c r="AH4" s="144" t="s">
         <v>615</v>
       </c>
-      <c r="AH4" s="144" t="s">
+      <c r="AI4" s="144" t="s">
+        <v>598</v>
+      </c>
+      <c r="AJ4" s="144" t="s">
         <v>616</v>
       </c>
-      <c r="AI4" s="144" t="s">
-        <v>599</v>
-      </c>
-      <c r="AJ4" s="144" t="s">
+      <c r="AK4" s="144" t="s">
         <v>617</v>
-      </c>
-      <c r="AK4" s="144" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="141" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B5" s="141" t="s">
         <v>107</v>
@@ -11758,103 +11761,103 @@
         <v>262</v>
       </c>
       <c r="E5" s="142" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F5" s="142" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="142" t="s">
+        <v>620</v>
+      </c>
+      <c r="H5" s="142" t="s">
         <v>621</v>
       </c>
-      <c r="H5" s="142" t="s">
-        <v>622</v>
-      </c>
       <c r="I5" s="142" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J5" s="142" t="s">
         <v>231</v>
       </c>
       <c r="K5" s="144" t="s">
+        <v>622</v>
+      </c>
+      <c r="L5" s="143" t="s">
         <v>623</v>
       </c>
-      <c r="L5" s="143" t="s">
+      <c r="M5" s="144" t="s">
         <v>624</v>
       </c>
-      <c r="M5" s="144" t="s">
+      <c r="N5" s="144" t="s">
+        <v>489</v>
+      </c>
+      <c r="O5" s="144" t="s">
         <v>625</v>
       </c>
-      <c r="N5" s="144" t="s">
-        <v>490</v>
-      </c>
-      <c r="O5" s="144" t="s">
+      <c r="P5" s="144" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q5" s="144" t="s">
         <v>626</v>
       </c>
-      <c r="P5" s="144" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q5" s="144" t="s">
+      <c r="R5" s="144" t="s">
         <v>627</v>
       </c>
-      <c r="R5" s="144" t="s">
+      <c r="S5" s="144" t="s">
         <v>628</v>
       </c>
-      <c r="S5" s="144" t="s">
+      <c r="T5" s="144" t="s">
         <v>629</v>
       </c>
-      <c r="T5" s="144" t="s">
+      <c r="U5" s="144" t="s">
         <v>630</v>
       </c>
-      <c r="U5" s="144" t="s">
+      <c r="V5" s="144" t="s">
         <v>631</v>
       </c>
-      <c r="V5" s="144" t="s">
+      <c r="W5" s="144" t="s">
         <v>632</v>
       </c>
-      <c r="W5" s="144" t="s">
+      <c r="X5" s="144" t="s">
         <v>633</v>
       </c>
-      <c r="X5" s="144" t="s">
+      <c r="Y5" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z5" s="144" t="s">
         <v>634</v>
       </c>
-      <c r="Y5" s="144" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z5" s="144" t="s">
+      <c r="AA5" s="144" t="s">
         <v>635</v>
       </c>
-      <c r="AA5" s="144" t="s">
+      <c r="AB5" s="144" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC5" s="144" t="s">
+        <v>492</v>
+      </c>
+      <c r="AD5" s="144" t="s">
         <v>636</v>
       </c>
-      <c r="AB5" s="144" t="s">
-        <v>631</v>
-      </c>
-      <c r="AC5" s="144" t="s">
-        <v>493</v>
-      </c>
-      <c r="AD5" s="144" t="s">
+      <c r="AE5" s="144" t="s">
         <v>637</v>
       </c>
-      <c r="AE5" s="144" t="s">
+      <c r="AF5" s="144" t="s">
         <v>638</v>
       </c>
-      <c r="AF5" s="144" t="s">
+      <c r="AG5" s="144" t="s">
         <v>639</v>
       </c>
-      <c r="AG5" s="144" t="s">
+      <c r="AH5" s="144" t="s">
         <v>640</v>
       </c>
-      <c r="AH5" s="144" t="s">
+      <c r="AI5" s="144" t="s">
+        <v>624</v>
+      </c>
+      <c r="AJ5" s="144" t="s">
         <v>641</v>
       </c>
-      <c r="AI5" s="144" t="s">
-        <v>625</v>
-      </c>
-      <c r="AJ5" s="144" t="s">
+      <c r="AK5" s="144" t="s">
         <v>642</v>
-      </c>
-      <c r="AK5" s="144" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -11885,85 +11888,85 @@
       <c r="I6" s="141"/>
       <c r="J6" s="141"/>
       <c r="K6" s="144" t="s">
+        <v>643</v>
+      </c>
+      <c r="L6" s="143" t="s">
         <v>644</v>
       </c>
-      <c r="L6" s="143" t="s">
+      <c r="M6" s="144" t="s">
         <v>645</v>
       </c>
-      <c r="M6" s="144" t="s">
+      <c r="N6" s="144" t="s">
         <v>646</v>
       </c>
-      <c r="N6" s="144" t="s">
-        <v>647</v>
-      </c>
       <c r="O6" s="144" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P6" s="144" t="s">
         <v>188</v>
       </c>
       <c r="Q6" s="144" t="s">
+        <v>647</v>
+      </c>
+      <c r="R6" s="144" t="s">
         <v>648</v>
       </c>
-      <c r="R6" s="144" t="s">
+      <c r="S6" s="144" t="s">
         <v>649</v>
       </c>
-      <c r="S6" s="144" t="s">
+      <c r="T6" s="144" t="s">
         <v>650</v>
       </c>
-      <c r="T6" s="144" t="s">
+      <c r="U6" s="144" t="s">
         <v>651</v>
       </c>
-      <c r="U6" s="144" t="s">
+      <c r="V6" s="144" t="s">
         <v>652</v>
       </c>
-      <c r="V6" s="144" t="s">
+      <c r="W6" s="144" t="s">
         <v>653</v>
       </c>
-      <c r="W6" s="144" t="s">
+      <c r="X6" s="144" t="s">
         <v>654</v>
       </c>
-      <c r="X6" s="144" t="s">
+      <c r="Y6" s="144" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z6" s="144" t="s">
         <v>655</v>
       </c>
-      <c r="Y6" s="144" t="s">
-        <v>581</v>
-      </c>
-      <c r="Z6" s="144" t="s">
+      <c r="AA6" s="144" t="s">
         <v>656</v>
       </c>
-      <c r="AA6" s="144" t="s">
+      <c r="AB6" s="144" t="s">
         <v>657</v>
       </c>
-      <c r="AB6" s="144" t="s">
+      <c r="AC6" s="144" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD6" s="144" t="s">
         <v>658</v>
       </c>
-      <c r="AC6" s="144" t="s">
-        <v>578</v>
-      </c>
-      <c r="AD6" s="144" t="s">
+      <c r="AE6" s="144" t="s">
         <v>659</v>
       </c>
-      <c r="AE6" s="144" t="s">
+      <c r="AF6" s="144" t="s">
         <v>660</v>
       </c>
-      <c r="AF6" s="144" t="s">
+      <c r="AG6" s="144" t="s">
         <v>661</v>
       </c>
-      <c r="AG6" s="144" t="s">
+      <c r="AH6" s="144" t="s">
         <v>662</v>
       </c>
-      <c r="AH6" s="144" t="s">
+      <c r="AI6" s="144" t="s">
+        <v>645</v>
+      </c>
+      <c r="AJ6" s="144" t="s">
         <v>663</v>
       </c>
-      <c r="AI6" s="144" t="s">
-        <v>646</v>
-      </c>
-      <c r="AJ6" s="144" t="s">
+      <c r="AK6" s="144" t="s">
         <v>664</v>
-      </c>
-      <c r="AK6" s="144" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/ArcTest.xlsx
+++ b/ArcTest.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Group 10\git\USGBCArc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{637772B0-6974-40D3-96E8-548EBBC40CD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04018FAE-F3D7-49BC-88AF-DBEB516B6998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USBuildingProject" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="700">
   <si>
     <t>Project Name</t>
   </si>
@@ -1495,9 +1495,6 @@
     <t>99999</t>
   </si>
   <si>
-    <t>1000151663</t>
-  </si>
-  <si>
     <t>Z Park</t>
   </si>
   <si>
@@ -1513,27 +1510,15 @@
     <t>72</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -1558,42 +1543,18 @@
     <t>13</t>
   </si>
   <si>
-    <t>8.5</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>19.7</t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>1,230</t>
   </si>
   <si>
-    <t>4.49</t>
-  </si>
-  <si>
-    <t>42.5181</t>
-  </si>
-  <si>
-    <t>42.51</t>
-  </si>
-  <si>
-    <t>48.9</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
@@ -1609,9 +1570,6 @@
     <t>2019</t>
   </si>
   <si>
-    <t>Building Portfolio 123321</t>
-  </si>
-  <si>
     <t>1000151901</t>
   </si>
   <si>
@@ -2113,12 +2071,6 @@
     <t>1000075328</t>
   </si>
   <si>
-    <t>1000075329</t>
-  </si>
-  <si>
-    <t>0011085032</t>
-  </si>
-  <si>
     <t>0.66</t>
   </si>
   <si>
@@ -2131,7 +2083,91 @@
     <t>1000075330</t>
   </si>
   <si>
-    <t>0011085033</t>
+    <t>1000075372</t>
+  </si>
+  <si>
+    <t>0011085086</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>BasePoint</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Building Portfolio 154542</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9,3,5,7,6</t>
+  </si>
+  <si>
+    <t>7,5,2,9,6</t>
+  </si>
+  <si>
+    <t>3,2,4,8,5</t>
+  </si>
+  <si>
+    <t>3,4,2,7,5</t>
+  </si>
+  <si>
+    <t>2,3,8,4,6</t>
+  </si>
+  <si>
+    <t>42.8</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>15.90</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>4.66</t>
+  </si>
+  <si>
+    <t>6,8,9,2,5</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2192,12 +2228,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2342,6 +2372,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2412,7 +2448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2461,119 +2497,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="27" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="28" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2592,8 +2627,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2604,9 +2639,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2622,12 +2657,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2928,34 +2965,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -3238,7 +3275,7 @@
         <v>42</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>475</v>
+        <v>671</v>
       </c>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
@@ -3402,91 +3439,91 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="112" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="111" t="s">
         <v>391</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="109" t="s">
+      <c r="J7" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="K7" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="109" t="s">
+      <c r="M7" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="110" t="s">
+      <c r="N7" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="O7" s="114" t="s">
-        <v>514</v>
-      </c>
-      <c r="P7" s="109" t="s">
+      <c r="O7" s="113" t="s">
+        <v>500</v>
+      </c>
+      <c r="P7" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="111" t="s">
+      <c r="Q7" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="R7" s="111" t="s">
+      <c r="R7" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="111" t="s">
+      <c r="S7" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="111" t="s">
+      <c r="T7" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109" t="s">
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="111" t="s">
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="AE7" s="111" t="s">
+      <c r="AE7" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="AF7" s="111" t="s">
+      <c r="AF7" s="110" t="s">
         <v>181</v>
       </c>
-      <c r="AG7" s="111" t="s">
+      <c r="AG7" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="108"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
@@ -3502,55 +3539,57 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BR26"/>
+  <dimension ref="A1:BS32"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="74" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="74" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="74" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="74" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" style="74" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="74" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="74" width="20.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="74" width="19.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="74" width="11.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="74" width="35.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="74" width="12.85546875" collapsed="true"/>
-    <col min="12" max="12" style="74" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="74" width="14.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="74" width="15.28515625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" style="74" width="15.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="74" width="15.42578125" collapsed="true"/>
-    <col min="18" max="23" style="74" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="74" width="20.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="74" width="17.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="74" width="18.7109375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="74" width="14.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="74" width="13.42578125" collapsed="true"/>
-    <col min="29" max="29" style="74" width="9.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="74" width="15.0" collapsed="true"/>
-    <col min="31" max="32" style="74" width="9.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="74" width="14.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="74" width="18.7109375" collapsed="true"/>
-    <col min="35" max="35" style="74" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="74" width="11.85546875" collapsed="true"/>
-    <col min="37" max="38" style="74" width="9.140625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="74" width="22.42578125" collapsed="true"/>
-    <col min="40" max="68" style="74" width="9.140625" collapsed="true"/>
-    <col min="69" max="69" customWidth="true" style="74" width="16.28515625" collapsed="true"/>
-    <col min="70" max="16384" style="74" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" style="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="74" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="74" collapsed="1"/>
+    <col min="13" max="13" width="14" style="74" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="15.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="18" max="23" width="9.140625" style="74" collapsed="1"/>
+    <col min="24" max="24" width="20" style="74" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="18.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.140625" style="74" collapsed="1"/>
+    <col min="30" max="30" width="15" style="74" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="9.140625" style="74" collapsed="1"/>
+    <col min="33" max="33" width="14.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="18.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="74" collapsed="1"/>
+    <col min="36" max="36" width="11.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.140625" style="74" collapsed="1"/>
+    <col min="38" max="38" width="13.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.85546875" style="142" customWidth="1"/>
+    <col min="40" max="40" width="22.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="41" max="69" width="9.140625" style="74" collapsed="1"/>
+    <col min="70" max="70" width="16.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="71" max="16384" width="9.140625" style="74" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="102" t="s">
         <v>352</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -3574,194 +3613,197 @@
       <c r="I1" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="102" t="s">
+      <c r="N1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="102" t="s">
+      <c r="R1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="102" t="s">
+      <c r="S1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="102" t="s">
+      <c r="T1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="102" t="s">
+      <c r="U1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="W1" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="101" t="s">
         <v>274</v>
       </c>
-      <c r="Y1" s="102" t="s">
+      <c r="Y1" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="102" t="s">
+      <c r="Z1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="102" t="s">
+      <c r="AA1" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="AB1" s="102" t="s">
+      <c r="AB1" s="101" t="s">
         <v>276</v>
       </c>
-      <c r="AC1" s="102" t="s">
+      <c r="AC1" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="AD1" s="102" t="s">
+      <c r="AD1" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="102" t="s">
+      <c r="AE1" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="AF1" s="102" t="s">
+      <c r="AF1" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="AG1" s="102" t="s">
+      <c r="AG1" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="AH1" s="102" t="s">
+      <c r="AH1" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="AI1" s="102" t="s">
+      <c r="AI1" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="AJ1" s="102" t="s">
+      <c r="AJ1" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="AK1" s="102" t="s">
+      <c r="AK1" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="AL1" s="102" t="s">
+      <c r="AL1" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="AM1" s="102" t="s">
+      <c r="AM1" s="101" t="s">
+        <v>674</v>
+      </c>
+      <c r="AN1" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AS1" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AT1" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AV1" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="AW1" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="AW1" s="16" t="s">
+      <c r="AX1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="AX1" s="16" t="s">
+      <c r="AY1" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="AY1" s="16" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="AZ1" s="16" t="s">
+      <c r="BA1" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BB1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BC1" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="BC1" s="16" t="s">
+      <c r="BD1" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="BD1" s="16" t="s">
+      <c r="BE1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BF1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="BF1" s="16" t="s">
+      <c r="BG1" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="BG1" s="16" t="s">
+      <c r="BH1" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="BH1" s="16" t="s">
+      <c r="BI1" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="BI1" s="16" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="BJ1" s="16" t="s">
+      <c r="BK1" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="BK1" s="16" t="s">
+      <c r="BL1" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="BL1" s="16" t="s">
+      <c r="BM1" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BN1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="BN1" s="16" t="s">
+      <c r="BO1" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="BO1" s="16" t="s">
+      <c r="BP1" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="BP1" s="107"/>
-      <c r="BQ1" s="108" t="s">
-        <v>509</v>
-      </c>
-      <c r="BR1" s="108" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="BQ1" s="106"/>
+      <c r="BR1" s="107" t="s">
+        <v>496</v>
+      </c>
+      <c r="BS1" s="107" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>513</v>
+        <v>677</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>40</v>
@@ -3838,8 +3880,8 @@
       <c r="AA2" s="74">
         <v>30</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>479</v>
+      <c r="AB2" s="143" t="s">
+        <v>673</v>
       </c>
       <c r="AC2" s="74" t="s">
         <v>327</v>
@@ -3851,115 +3893,118 @@
         <v>329</v>
       </c>
       <c r="AH2" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>44</v>
+        <v>481</v>
+      </c>
+      <c r="AI2" s="143" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ2" s="143" t="s">
+        <v>491</v>
       </c>
       <c r="AK2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="AL2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM2" s="9">
-        <v>0.42470000000000002</v>
-      </c>
-      <c r="AN2" s="74" t="s">
-        <v>99</v>
+      <c r="AL2" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM2" s="143" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN2" s="143" t="s">
+        <v>616</v>
       </c>
       <c r="AO2" s="74" t="s">
         <v>99</v>
       </c>
       <c r="AP2" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ2" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="AQ2" s="74" t="s">
+      <c r="AR2" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="AR2" s="74" t="s">
+      <c r="AS2" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="AS2" s="74" t="s">
+      <c r="AT2" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="AT2" s="74" t="s">
+      <c r="AU2" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="AU2" s="74" t="s">
+      <c r="AV2" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="AV2" s="74" t="s">
+      <c r="AW2" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="AW2" s="74" t="s">
+      <c r="AX2" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="AX2" s="74" t="s">
+      <c r="AY2" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="AY2" s="74" t="s">
+      <c r="AZ2" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="AZ2" s="74" t="s">
+      <c r="BA2" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="BA2" s="74" t="s">
+      <c r="BB2" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="BB2" s="74" t="s">
+      <c r="BC2" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="BC2" s="74" t="s">
+      <c r="BD2" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="BD2" s="74" t="s">
+      <c r="BE2" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="BE2" s="74" t="s">
+      <c r="BF2" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="BF2" s="74" t="s">
+      <c r="BG2" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="BG2" s="74" t="s">
+      <c r="BH2" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="BH2" s="74" t="s">
+      <c r="BI2" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="BI2" s="74" t="s">
+      <c r="BJ2" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="BJ2" s="74" t="s">
+      <c r="BK2" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="BK2" s="74" t="s">
+      <c r="BL2" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="BL2" s="74" t="s">
+      <c r="BM2" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="BM2" s="74" t="s">
+      <c r="BN2" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="BN2" s="74" t="s">
+      <c r="BO2" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="BO2" s="74" t="s">
+      <c r="BP2" s="74" t="s">
         <v>230</v>
       </c>
-      <c r="BQ2" s="9" t="s">
-        <v>511</v>
-      </c>
       <c r="BR2" s="9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B3" s="74" t="s">
         <v>67</v>
       </c>
@@ -4036,7 +4081,7 @@
         <v>30</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AC3" s="74" t="s">
         <v>292</v>
@@ -4054,109 +4099,110 @@
         <v>295</v>
       </c>
       <c r="AH3" s="93" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AK3" s="9" t="s">
         <v>329</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM3" s="95">
-        <v>0.42470000000000002</v>
-      </c>
-      <c r="AN3" s="74" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143" t="s">
+        <v>697</v>
+      </c>
+      <c r="AO3" s="74" t="s">
         <v>199</v>
       </c>
-      <c r="AO3" s="74" t="s">
+      <c r="AP3" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="AP3" s="74" t="s">
+      <c r="AQ3" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="AQ3" s="74" t="s">
+      <c r="AR3" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="74" t="s">
+      <c r="AS3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="AS3" s="74" t="s">
+      <c r="AT3" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="AT3" s="74" t="s">
+      <c r="AU3" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="AU3" s="74" t="s">
+      <c r="AV3" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="AV3" s="74" t="s">
+      <c r="AW3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="AW3" s="74" t="s">
+      <c r="AX3" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="AX3" s="74" t="s">
+      <c r="AY3" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="AY3" s="74" t="s">
+      <c r="AZ3" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="AZ3" s="74" t="s">
+      <c r="BA3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="BA3" s="74" t="s">
+      <c r="BB3" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="BB3" s="74" t="s">
+      <c r="BC3" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="74" t="s">
+      <c r="BD3" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="74" t="s">
+      <c r="BE3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="BE3" s="74" t="s">
+      <c r="BF3" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="BF3" s="74" t="s">
+      <c r="BG3" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="BG3" s="74" t="s">
+      <c r="BH3" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="BH3" s="74" t="s">
+      <c r="BI3" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="BI3" s="74" t="s">
+      <c r="BJ3" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="BJ3" s="74" t="s">
+      <c r="BK3" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="BK3" s="74" t="s">
+      <c r="BL3" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="BL3" s="74" t="s">
+      <c r="BM3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="BM3" s="74" t="s">
+      <c r="BN3" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="BN3" s="74" t="s">
+      <c r="BO3" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="BO3" s="74" t="s">
+      <c r="BP3" s="74" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="J4" s="74" t="s">
         <v>376</v>
       </c>
@@ -4211,38 +4257,41 @@
       <c r="AA4" s="74">
         <v>30</v>
       </c>
-      <c r="AB4" s="9" t="s">
-        <v>481</v>
+      <c r="AB4" s="143" t="s">
+        <v>680</v>
       </c>
       <c r="AC4" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="143" t="s">
         <v>345</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AH4" s="96" t="s">
-        <v>487</v>
+      <c r="AH4" s="95" t="s">
+        <v>489</v>
       </c>
       <c r="AI4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AJ4" s="9" t="s">
-        <v>493</v>
+      <c r="AJ4" s="143" t="s">
+        <v>485</v>
       </c>
       <c r="AK4" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AL4" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AL4" s="143" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM4" s="143" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN4" s="143" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="J5" s="74" t="s">
         <v>375</v>
       </c>
@@ -4297,13 +4346,13 @@
       <c r="AA5" s="74">
         <v>30</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>482</v>
+      <c r="AB5" s="143" t="s">
+        <v>33</v>
       </c>
       <c r="AC5" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="AD5" s="97" t="s">
+      <c r="AD5" s="96" t="s">
         <v>310</v>
       </c>
       <c r="AE5" s="9" t="s">
@@ -4316,25 +4365,28 @@
         <v>312</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="AI5" s="143" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ5" s="143" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK5" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="AK5" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>0.42470000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AL5" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM5" s="143" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN5" s="149" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="J6" s="74" t="s">
         <v>374</v>
       </c>
@@ -4389,13 +4441,13 @@
       <c r="AA6" s="74">
         <v>20</v>
       </c>
-      <c r="AB6" s="9" t="s">
-        <v>33</v>
+      <c r="AB6" s="143" t="s">
+        <v>682</v>
       </c>
       <c r="AC6" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="AD6" s="97" t="s">
+      <c r="AD6" s="96" t="s">
         <v>302</v>
       </c>
       <c r="AE6" s="9" t="s">
@@ -4407,26 +4459,29 @@
       <c r="AG6" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="AH6" s="98" t="s">
-        <v>491</v>
-      </c>
-      <c r="AI6" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>248</v>
+      <c r="AH6" s="97" t="s">
+        <v>486</v>
+      </c>
+      <c r="AI6" s="143" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ6" s="143" t="s">
+        <v>249</v>
       </c>
       <c r="AK6" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>0.42009999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="AL6" s="143" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM6" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN6" s="143" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="J7" s="74" t="s">
         <v>373</v>
       </c>
@@ -4481,38 +4536,41 @@
       <c r="AA7" s="74">
         <v>30</v>
       </c>
-      <c r="AB7" s="9" t="s">
-        <v>483</v>
+      <c r="AB7" s="143" t="s">
+        <v>495</v>
       </c>
       <c r="AC7" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="AD7" s="97" t="s">
+      <c r="AD7" s="96" t="s">
         <v>333</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AH7" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ7" s="9" t="s">
-        <v>493</v>
+      <c r="AH7" s="143" t="s">
+        <v>607</v>
+      </c>
+      <c r="AI7" s="143" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ7" s="143" t="s">
+        <v>329</v>
       </c>
       <c r="AK7" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AL7" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM7" s="9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AL7" s="143" t="s">
+        <v>675</v>
+      </c>
+      <c r="AM7" s="143" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN7" s="143" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="J8" s="74" t="s">
         <v>372</v>
       </c>
@@ -4567,8 +4625,8 @@
       <c r="AA8" s="74">
         <v>17</v>
       </c>
-      <c r="AB8" s="9" t="s">
-        <v>191</v>
+      <c r="AB8" s="143" t="s">
+        <v>681</v>
       </c>
       <c r="AC8" s="74" t="s">
         <v>292</v>
@@ -4586,25 +4644,26 @@
         <v>325</v>
       </c>
       <c r="AH8" s="92" t="s">
-        <v>494</v>
+        <v>174</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="AJ8" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
+      </c>
+      <c r="AJ8" s="143" t="s">
+        <v>44</v>
       </c>
       <c r="AK8" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AL8" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM8" s="9">
-        <v>0.29299999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AL8" s="143" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM8" s="143"/>
+      <c r="AN8" s="143" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="J9" s="74" t="s">
         <v>371</v>
       </c>
@@ -4659,13 +4718,13 @@
       <c r="AA9" s="74">
         <v>16</v>
       </c>
-      <c r="AB9" s="9" t="s">
-        <v>484</v>
+      <c r="AB9" s="143" t="s">
+        <v>483</v>
       </c>
       <c r="AC9" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="AD9" s="97" t="s">
+      <c r="AD9" s="96" t="s">
         <v>318</v>
       </c>
       <c r="AE9" s="9" t="s">
@@ -4677,26 +4736,29 @@
       <c r="AG9" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AH9" s="99" t="s">
-        <v>489</v>
-      </c>
-      <c r="AI9" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ9" s="9" t="s">
-        <v>253</v>
+      <c r="AH9" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI9" s="143" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ9" s="143" t="s">
+        <v>676</v>
       </c>
       <c r="AK9" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="AL9" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="AL9" s="143" t="s">
         <v>231</v>
       </c>
-      <c r="AM9" s="9">
-        <v>0.4945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AM9" s="143" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN9" s="143" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="J10" s="74" t="s">
         <v>370</v>
       </c>
@@ -4751,7 +4813,7 @@
       <c r="AA10" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="AB10" s="9" t="s">
+      <c r="AB10" s="143" t="s">
         <v>249</v>
       </c>
       <c r="AC10" s="74" t="s">
@@ -4763,7 +4825,7 @@
       <c r="AE10" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AH10" s="100" t="s">
+      <c r="AH10" s="99" t="s">
         <v>329</v>
       </c>
       <c r="AI10" s="9" t="s">
@@ -4778,11 +4840,14 @@
       <c r="AL10" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AM10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AM10" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN10" s="143" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="J11" s="74" t="s">
         <v>369</v>
       </c>
@@ -4849,7 +4914,7 @@
       <c r="AE11" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AH11" s="100" t="s">
+      <c r="AH11" s="99" t="s">
         <v>329</v>
       </c>
       <c r="AI11" s="9" t="s">
@@ -4861,211 +4926,229 @@
       <c r="AK11" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="AL11" s="9" t="s">
+      <c r="AL11" s="143" t="s">
         <v>329</v>
       </c>
-      <c r="AM11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="AM11" s="143"/>
+      <c r="AN11" s="143" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="Y12" s="74">
         <f>SUM(Y2:Y11)</f>
         <v>1230</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="P13" s="101"/>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="P13" s="100"/>
       <c r="V13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AE13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="X14" s="106" t="s">
+      <c r="AH13" s="143" t="s">
+        <v>687</v>
+      </c>
+      <c r="AI13" s="143" t="s">
+        <v>686</v>
+      </c>
+      <c r="AJ13" s="143" t="s">
+        <v>685</v>
+      </c>
+      <c r="AK13" s="143" t="s">
+        <v>684</v>
+      </c>
+      <c r="AL13" s="143" t="s">
+        <v>683</v>
+      </c>
+      <c r="AM13" s="143"/>
+      <c r="AN13" s="143" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="X14" s="105" t="s">
         <v>346</v>
       </c>
-      <c r="Y14" s="104" t="s">
-        <v>503</v>
-      </c>
-      <c r="Z14" s="105" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA14" s="104">
+      <c r="Y14" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z14" s="104" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA14" s="103">
         <f>SUM(AA2:AA10)</f>
         <v>203</v>
       </c>
-      <c r="AB14" s="104"/>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="X15" s="106" t="s">
+      <c r="AB14" s="103"/>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="X15" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="105" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA15" s="104">
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="104" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA15" s="103">
         <f>SUM(AA1:AA6)</f>
         <v>140</v>
       </c>
-      <c r="AB15" s="104"/>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="X16" s="106" t="s">
+      <c r="AB15" s="103"/>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="X16" s="105" t="s">
         <v>348</v>
       </c>
-      <c r="Y16" s="104">
+      <c r="Y16" s="103">
         <f>AVERAGE(Y2:Y10)</f>
         <v>136.66666666666666</v>
       </c>
-      <c r="Z16" s="104">
+      <c r="Z16" s="103">
         <f>AVERAGE(Z1:Z10)</f>
         <v>57335.888888888891</v>
       </c>
-      <c r="AA16" s="104">
+      <c r="AA16" s="103">
         <f>AVERAGE(AA1:AA10)</f>
         <v>25.375</v>
       </c>
-      <c r="AB16" s="104" t="s">
-        <v>507</v>
-      </c>
-      <c r="AH16" s="104" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI16" s="104" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ16" s="104" t="s">
-        <v>498</v>
-      </c>
-      <c r="AK16" s="104" t="s">
-        <v>500</v>
-      </c>
-      <c r="AL16" s="104" t="s">
-        <v>501</v>
-      </c>
-      <c r="AM16" s="104" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="10:39" x14ac:dyDescent="0.25">
-      <c r="X17" s="106" t="s">
+      <c r="AB16" s="103" t="s">
+        <v>688</v>
+      </c>
+      <c r="AH16" s="103" t="s">
+        <v>679</v>
+      </c>
+      <c r="AI16" s="103" t="s">
+        <v>689</v>
+      </c>
+      <c r="AJ16" s="103" t="s">
+        <v>690</v>
+      </c>
+      <c r="AK16" s="103" t="s">
+        <v>637</v>
+      </c>
+      <c r="AL16" s="103" t="s">
+        <v>638</v>
+      </c>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="103" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="X17" s="105" t="s">
         <v>349</v>
       </c>
-      <c r="Y17" s="104">
+      <c r="Y17" s="103">
         <v>100</v>
       </c>
-      <c r="Z17" s="104">
+      <c r="Z17" s="103">
         <v>500000</v>
       </c>
-      <c r="AA17" s="104">
+      <c r="AA17" s="103">
         <v>30</v>
       </c>
-      <c r="AB17" s="105" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH17" s="105" t="s">
-        <v>485</v>
-      </c>
-      <c r="AI17" s="104" t="s">
-        <v>492</v>
-      </c>
-      <c r="AJ17" s="105" t="s">
-        <v>493</v>
-      </c>
-      <c r="AK17" s="105" t="s">
+      <c r="AB17" s="104" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH17" s="104" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI17" s="103" t="s">
+        <v>487</v>
+      </c>
+      <c r="AJ17" s="104" t="s">
+        <v>488</v>
+      </c>
+      <c r="AK17" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="AL17" s="105" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM17" s="104" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="10:39" x14ac:dyDescent="0.25">
-      <c r="X18" s="106" t="s">
+      <c r="AL17" s="104" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="103" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="X18" s="105" t="s">
         <v>350</v>
       </c>
-      <c r="Y18" s="104">
+      <c r="Y18" s="103">
         <v>0</v>
       </c>
-      <c r="Z18" s="104">
+      <c r="Z18" s="103">
         <v>1000</v>
       </c>
-      <c r="AA18" s="104">
+      <c r="AA18" s="103">
         <v>0</v>
       </c>
-      <c r="AB18" s="104" t="s">
+      <c r="AB18" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="AH18" s="105" t="s">
-        <v>489</v>
-      </c>
-      <c r="AI18" s="104" t="s">
+      <c r="AH18" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="AJ18" s="105" t="s">
+      <c r="AI18" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="AK18" s="105" t="s">
+      <c r="AJ18" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="AL18" s="105" t="s">
+      <c r="AK18" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="AM18" s="104" t="s">
+      <c r="AL18" s="104" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="19" spans="10:39" x14ac:dyDescent="0.25">
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="103" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="19" spans="10:40" x14ac:dyDescent="0.25">
       <c r="K19" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="X19" s="106" t="s">
+      <c r="X19" s="105" t="s">
         <v>351</v>
       </c>
-      <c r="Y19" s="104">
+      <c r="Y19" s="103">
         <f>ROUND(Y16,0)</f>
         <v>137</v>
       </c>
-      <c r="Z19" s="104">
+      <c r="Z19" s="103">
         <f>ROUND(Z16,0)</f>
         <v>57336</v>
       </c>
-      <c r="AA19" s="104">
+      <c r="AA19" s="103">
         <f>ROUND(AA16,0)</f>
         <v>25</v>
       </c>
-      <c r="AB19" s="104" t="s">
-        <v>508</v>
-      </c>
-      <c r="AH19" s="105" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI19" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ19" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK19" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL19" s="105" t="s">
-        <v>497</v>
-      </c>
-      <c r="AM19" s="104" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="10:39" x14ac:dyDescent="0.25">
+      <c r="AB19" s="103" t="s">
+        <v>678</v>
+      </c>
+      <c r="AH19" s="104" t="s">
+        <v>607</v>
+      </c>
+      <c r="AI19" s="104" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ19" s="104" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK19" s="104" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL19" s="104" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM19" s="104"/>
+      <c r="AN19" s="103" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J20" s="74" t="s">
         <v>368</v>
       </c>
@@ -5139,7 +5222,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="10:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J21" s="74" t="s">
         <v>376</v>
       </c>
@@ -5207,7 +5290,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="10:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J22" s="74" t="s">
         <v>375</v>
       </c>
@@ -5268,7 +5351,7 @@
       <c r="AC22" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="AD22" s="97" t="s">
+      <c r="AD22" s="96" t="s">
         <v>310</v>
       </c>
       <c r="AE22" s="9" t="s">
@@ -5281,7 +5364,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="10:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J23" s="74" t="s">
         <v>374</v>
       </c>
@@ -5342,7 +5425,7 @@
       <c r="AC23" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="AD23" s="97" t="s">
+      <c r="AD23" s="96" t="s">
         <v>302</v>
       </c>
       <c r="AE23" s="9" t="s">
@@ -5354,8 +5437,9 @@
       <c r="AG23" s="9" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="24" spans="10:39" x14ac:dyDescent="0.25">
+      <c r="AH23" s="148"/>
+    </row>
+    <row r="24" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J24" s="74" t="s">
         <v>373</v>
       </c>
@@ -5416,14 +5500,15 @@
       <c r="AC24" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="AD24" s="97" t="s">
+      <c r="AD24" s="96" t="s">
         <v>333</v>
       </c>
       <c r="AE24" s="9" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="25" spans="10:39" x14ac:dyDescent="0.25">
+      <c r="AH24" s="148"/>
+    </row>
+    <row r="25" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J25" s="74" t="s">
         <v>372</v>
       </c>
@@ -5496,8 +5581,9 @@
       <c r="AG25" s="9" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="10:39" x14ac:dyDescent="0.25">
+      <c r="AH25" s="148"/>
+    </row>
+    <row r="26" spans="10:40" x14ac:dyDescent="0.25">
       <c r="J26" s="74" t="s">
         <v>371</v>
       </c>
@@ -5558,7 +5644,7 @@
       <c r="AC26" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="AD26" s="97" t="s">
+      <c r="AD26" s="96" t="s">
         <v>318</v>
       </c>
       <c r="AE26" s="9" t="s">
@@ -5570,6 +5656,25 @@
       <c r="AG26" s="9" t="s">
         <v>319</v>
       </c>
+      <c r="AH26" s="148"/>
+    </row>
+    <row r="27" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="AH27" s="148"/>
+    </row>
+    <row r="28" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="AH28" s="148"/>
+    </row>
+    <row r="29" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="AH29" s="148"/>
+    </row>
+    <row r="30" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="AH30" s="148"/>
+    </row>
+    <row r="31" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="AH31" s="148"/>
+    </row>
+    <row r="32" spans="10:40" x14ac:dyDescent="0.25">
+      <c r="AH32" s="148"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5595,22 +5700,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -5714,8 +5819,8 @@
       <c r="M2" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="N2" s="147" t="s">
-        <v>673</v>
+      <c r="N2" s="146" t="s">
+        <v>659</v>
       </c>
       <c r="O2" s="51" t="s">
         <v>396</v>
@@ -5770,11 +5875,11 @@
       <c r="M3" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="147" t="s">
-        <v>673</v>
+      <c r="N3" s="146" t="s">
+        <v>659</v>
       </c>
       <c r="O3" s="51" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="P3" s="53" t="s">
         <v>184</v>
@@ -5826,8 +5931,8 @@
       <c r="M4" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="N4" s="147" t="s">
-        <v>673</v>
+      <c r="N4" s="146" t="s">
+        <v>659</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="53" t="s">
@@ -5860,16 +5965,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="17.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="20.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="16.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6036,24 +6141,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="78" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="78" width="19.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="78" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="78" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="78" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="78" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="78" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" style="78" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="78" width="18.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="78" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="78" width="14.42578125" collapsed="true"/>
-    <col min="13" max="14" style="78" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="78" width="13.140625" collapsed="true"/>
-    <col min="16" max="17" style="78" width="9.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="78" width="9.85546875" collapsed="true"/>
-    <col min="19" max="19" style="78" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="78" width="36.5703125" collapsed="true"/>
-    <col min="21" max="16384" style="78" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23" style="78" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="78" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" style="78" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" style="78" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" style="78" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" style="78" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="78" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="78" collapsed="1"/>
+    <col min="9" max="9" width="18.42578125" style="78" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="78" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" style="78" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="9.140625" style="78" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="78" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="9.140625" style="78" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" style="78" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="78" collapsed="1"/>
+    <col min="20" max="20" width="36.5703125" style="78" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="78" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
@@ -6159,11 +6264,11 @@
       <c r="M2" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="N2" s="147" t="s">
-        <v>673</v>
+      <c r="N2" s="146" t="s">
+        <v>659</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="P2" s="42" t="s">
         <v>184</v>
@@ -6224,8 +6329,8 @@
       <c r="M3" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="147" t="s">
-        <v>673</v>
+      <c r="N3" s="146" t="s">
+        <v>659</v>
       </c>
       <c r="O3" s="40"/>
       <c r="P3" s="42" t="s">
@@ -6280,8 +6385,8 @@
       <c r="M4" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="N4" s="147" t="s">
-        <v>673</v>
+      <c r="N4" s="146" t="s">
+        <v>659</v>
       </c>
       <c r="O4" s="40"/>
       <c r="P4" s="42" t="s">
@@ -6323,16 +6428,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="54" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="54" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="54" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="54" width="20.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="54" width="21.0" collapsed="true"/>
-    <col min="6" max="10" style="54" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="54" width="13.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="54" width="19.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="54" width="9.140625" collapsed="true"/>
-    <col min="14" max="16384" style="54" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="54" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" style="54" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="54" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.28515625" style="54" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" style="54" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="9.140625" style="54" collapsed="1"/>
+    <col min="11" max="11" width="13.85546875" style="54" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.28515625" style="54" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="54" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="54" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6610,24 +6715,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="51" width="17.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="51" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="51" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="51" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="51" width="21.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="51" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="51" width="21.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="51" width="18.0" collapsed="true"/>
-    <col min="9" max="9" style="51" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="51" width="31.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="51" width="12.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="51" width="10.85546875" collapsed="true"/>
-    <col min="13" max="13" style="51" width="9.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="51" width="12.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="51" width="15.5703125" collapsed="true"/>
-    <col min="16" max="28" style="51" width="9.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="51" width="12.7109375" collapsed="true"/>
-    <col min="30" max="16384" style="51" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.7109375" style="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.42578125" style="51" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="51" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" style="51" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.28515625" style="51" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" style="51" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21" style="51" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18" style="51" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="51" collapsed="1"/>
+    <col min="10" max="10" width="31.7109375" style="51" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="51" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" style="51" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="51" collapsed="1"/>
+    <col min="14" max="14" width="12.85546875" style="51" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.5703125" style="51" customWidth="1" collapsed="1"/>
+    <col min="16" max="28" width="9.140625" style="51" collapsed="1"/>
+    <col min="29" max="29" width="12.7109375" style="51" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.140625" style="51" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -7071,91 +7176,91 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="119" t="s">
         <v>413</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="F7" s="118" t="s">
         <v>391</v>
       </c>
-      <c r="G7" s="116" t="s">
+      <c r="G7" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="120" t="s">
         <v>419</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="122" t="s">
+      <c r="J7" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="K7" s="122" t="s">
+      <c r="K7" s="121" t="s">
         <v>423</v>
       </c>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="120" t="s">
         <v>419</v>
       </c>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>420</v>
       </c>
-      <c r="N7" s="122" t="s">
-        <v>515</v>
-      </c>
-      <c r="O7" s="123" t="s">
-        <v>514</v>
-      </c>
-      <c r="P7" s="116" t="s">
+      <c r="N7" s="121" t="s">
+        <v>501</v>
+      </c>
+      <c r="O7" s="122" t="s">
+        <v>500</v>
+      </c>
+      <c r="P7" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="118" t="s">
+      <c r="Q7" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="R7" s="118" t="s">
+      <c r="R7" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="118" t="s">
+      <c r="S7" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="118" t="s">
+      <c r="T7" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116" t="s">
+      <c r="U7" s="115"/>
+      <c r="V7" s="115"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="118" t="s">
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="AE7" s="118" t="s">
+      <c r="AE7" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AF7" s="118" t="s">
+      <c r="AF7" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="AG7" s="118" t="s">
+      <c r="AG7" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="115"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
@@ -7178,24 +7283,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="33" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="33" width="19.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="33" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="33" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="33" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="33" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="33" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" style="33" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="33" width="18.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="33" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="33" width="14.42578125" collapsed="true"/>
-    <col min="13" max="14" style="33" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="33" width="13.140625" collapsed="true"/>
-    <col min="16" max="17" style="33" width="9.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="33" width="9.85546875" collapsed="true"/>
-    <col min="19" max="19" style="33" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="33" width="36.5703125" collapsed="true"/>
-    <col min="21" max="16384" style="33" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23" style="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" style="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" style="33" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" style="33" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" style="33" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="33" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="33" collapsed="1"/>
+    <col min="9" max="9" width="18.42578125" style="33" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="33" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" style="33" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="9.140625" style="33" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="9.140625" style="33" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" style="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="33" collapsed="1"/>
+    <col min="20" max="20" width="36.5703125" style="33" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="33" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
@@ -7305,7 +7410,7 @@
         <v>414</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="P2" s="42" t="s">
         <v>184</v>
@@ -7464,12 +7569,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -7573,7 +7678,7 @@
       <c r="M2" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="N2" s="148" t="s">
+      <c r="N2" s="147" t="s">
         <v>414</v>
       </c>
       <c r="O2" s="51" t="s">
@@ -7629,7 +7734,7 @@
       <c r="M3" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="N3" s="148" t="s">
+      <c r="N3" s="147" t="s">
         <v>415</v>
       </c>
       <c r="O3" s="51"/>
@@ -7683,7 +7788,7 @@
       <c r="M4" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="N4" s="148" t="s">
+      <c r="N4" s="147" t="s">
         <v>416</v>
       </c>
       <c r="O4" s="51"/>
@@ -7717,27 +7822,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="66" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="66" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="66" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="66" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="66" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="66" width="25.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="66" width="23.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="66" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" style="66" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="66" width="23.0" collapsed="true"/>
-    <col min="11" max="12" style="66" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="66" width="12.7109375" collapsed="true"/>
-    <col min="14" max="14" style="66" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="66" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="66" width="15.140625" collapsed="true"/>
-    <col min="17" max="23" style="66" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="66" width="16.7109375" collapsed="true"/>
-    <col min="25" max="28" style="66" width="9.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="66" width="19.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="66" width="16.0" collapsed="true"/>
-    <col min="31" max="16384" style="66" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="66" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="66" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" style="66" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" style="66" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" style="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="66" collapsed="1"/>
+    <col min="10" max="10" width="23" style="66" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="9.140625" style="66" collapsed="1"/>
+    <col min="13" max="13" width="12.7109375" style="66" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="66" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="66" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.140625" style="66" customWidth="1" collapsed="1"/>
+    <col min="17" max="23" width="9.140625" style="66" collapsed="1"/>
+    <col min="24" max="24" width="16.7109375" style="66" customWidth="1" collapsed="1"/>
+    <col min="25" max="28" width="9.140625" style="66" collapsed="1"/>
+    <col min="29" max="29" width="19.85546875" style="66" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="16" style="66" customWidth="1" collapsed="1"/>
+    <col min="31" max="16384" width="9.140625" style="66" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -8048,7 +8153,7 @@
         <v>439</v>
       </c>
       <c r="O4" s="73" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="P4" s="83"/>
       <c r="Q4" s="83"/>
@@ -8235,91 +8340,91 @@
       <c r="AJ6" s="51"/>
     </row>
     <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="127" t="s">
         <v>427</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="127" t="s">
+      <c r="F7" s="126" t="s">
         <v>391</v>
       </c>
-      <c r="G7" s="124" t="s">
+      <c r="G7" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="129" t="s">
+      <c r="H7" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="131" t="s">
-        <v>516</v>
-      </c>
-      <c r="K7" s="129" t="s">
+      <c r="J7" s="130" t="s">
+        <v>502</v>
+      </c>
+      <c r="K7" s="128" t="s">
         <v>429</v>
       </c>
-      <c r="L7" s="129" t="s">
+      <c r="L7" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="M7" s="129" t="s">
+      <c r="M7" s="128" t="s">
         <v>430</v>
       </c>
-      <c r="N7" s="130" t="s">
-        <v>517</v>
-      </c>
-      <c r="O7" s="132" t="s">
-        <v>514</v>
-      </c>
-      <c r="P7" s="124" t="s">
+      <c r="N7" s="129" t="s">
+        <v>503</v>
+      </c>
+      <c r="O7" s="131" t="s">
+        <v>500</v>
+      </c>
+      <c r="P7" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="126" t="s">
+      <c r="Q7" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="R7" s="126" t="s">
+      <c r="R7" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="126" t="s">
+      <c r="S7" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="126" t="s">
+      <c r="T7" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124" t="s">
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="126" t="s">
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="AE7" s="126" t="s">
+      <c r="AE7" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="AF7" s="126" t="s">
+      <c r="AF7" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="AG7" s="126" t="s">
+      <c r="AG7" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8337,18 +8442,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" style="72" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="72" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" style="72" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="72" width="17.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="72" width="20.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="72" width="16.5703125" collapsed="true"/>
-    <col min="8" max="9" style="72" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="72" width="23.5703125" collapsed="true"/>
-    <col min="11" max="14" style="72" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="72" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="72" width="13.140625" collapsed="true"/>
-    <col min="17" max="16384" style="72" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="9.140625" style="72" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" style="72" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="72" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" style="72" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.7109375" style="72" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="9.140625" style="72" collapsed="1"/>
+    <col min="10" max="10" width="23.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="9.140625" style="72" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.140625" style="72" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9.140625" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -8470,7 +8575,7 @@
         <v>431</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="P2" s="42" t="s">
         <v>184</v>
@@ -8667,7 +8772,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8722,20 +8827,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="74" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="74" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="74" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" style="74" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="74" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="74" width="25.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="74" width="18.42578125" collapsed="true"/>
-    <col min="8" max="9" style="74" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="74" width="27.42578125" collapsed="true"/>
-    <col min="11" max="14" style="74" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="74" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="74" width="14.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="74" width="17.140625" collapsed="true"/>
-    <col min="18" max="16384" style="74" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="74" collapsed="1"/>
+    <col min="5" max="5" width="20" style="74" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="9.140625" style="74" collapsed="1"/>
+    <col min="10" max="10" width="27.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="9.140625" style="74" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="74" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -8994,24 +9099,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="43" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="43" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="43" width="16.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="43" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="43" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="43" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="43" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" style="43" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="43" width="18.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="43" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="43" width="14.42578125" collapsed="true"/>
-    <col min="13" max="14" style="43" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="43" width="13.11328125" collapsed="true"/>
-    <col min="16" max="17" style="43" width="9.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="43" width="9.85546875" collapsed="true"/>
-    <col min="19" max="19" style="43" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="43" width="36.5703125" collapsed="true"/>
-    <col min="21" max="16384" style="43" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" style="43" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" style="43" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" style="43" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="43" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="43" collapsed="1"/>
+    <col min="9" max="9" width="18.42578125" style="43" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" style="43" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="9.140625" style="43" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="9.140625" style="43" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" style="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="43" collapsed="1"/>
+    <col min="20" max="20" width="36.5703125" style="43" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="43" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -9118,7 +9223,7 @@
         <v>462</v>
       </c>
       <c r="O2" s="90" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="P2" s="86" t="s">
         <v>184</v>
@@ -9177,7 +9282,7 @@
         <v>463</v>
       </c>
       <c r="O3" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="P3" s="86" t="s">
         <v>184</v>
@@ -9266,22 +9371,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -9385,11 +9490,11 @@
       <c r="M2" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="145" t="s">
+      <c r="N2" s="144" t="s">
         <v>462</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="P2" s="48" t="s">
         <v>184</v>
@@ -9441,11 +9546,11 @@
       <c r="M3" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="144" t="s">
         <v>462</v>
       </c>
       <c r="O3" s="46" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>184</v>
@@ -9497,11 +9602,11 @@
       <c r="M4" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="N4" s="145" t="s">
+      <c r="N4" s="144" t="s">
         <v>462</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="P4" s="48" t="s">
         <v>184</v>
@@ -9534,24 +9639,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="74" width="23.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="5" width="15.28515625" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="30.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="21.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="14.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="5" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" style="5" width="9.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="5" width="15.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="18" max="18" style="5" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="5" width="12.109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="5" width="11.5703125" collapsed="true"/>
-    <col min="21" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="5" collapsed="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="5" collapsed="1"/>
+    <col min="19" max="19" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -9600,20 +9705,20 @@
       <c r="O1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="139" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q1" s="139" t="s">
+      <c r="P1" s="138" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q1" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="139" t="s">
-        <v>519</v>
-      </c>
-      <c r="S1" s="139" t="s">
-        <v>520</v>
-      </c>
-      <c r="T1" s="139" t="s">
-        <v>521</v>
+      <c r="R1" s="138" t="s">
+        <v>505</v>
+      </c>
+      <c r="S1" s="138" t="s">
+        <v>506</v>
+      </c>
+      <c r="T1" s="138" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -9660,13 +9765,13 @@
       <c r="O2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="136" t="s">
+      <c r="P2" s="133"/>
+      <c r="Q2" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="133"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="132"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
@@ -9702,15 +9807,15 @@
       <c r="O3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133" t="s">
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133" t="s">
-        <v>687</v>
-      </c>
-      <c r="T3" s="133"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132" t="s">
+        <v>672</v>
+      </c>
+      <c r="T3" s="132"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -9753,13 +9858,13 @@
       <c r="O4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="134" t="s">
+      <c r="P4" s="137"/>
+      <c r="Q4" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="137" t="s">
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="136" t="s">
         <v>54</v>
       </c>
     </row>
@@ -9804,13 +9909,13 @@
       <c r="O5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="133" t="s">
+      <c r="P5" s="133"/>
+      <c r="Q5" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="135" t="s">
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="134" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9855,59 +9960,59 @@
       <c r="O6" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="P6" s="140" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q6" s="133" t="s">
+      <c r="P6" s="139" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q6" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="R6" s="133" t="s">
-        <v>523</v>
-      </c>
-      <c r="S6" s="133" t="s">
-        <v>524</v>
-      </c>
-      <c r="T6" s="135" t="s">
-        <v>525</v>
+      <c r="R6" s="132" t="s">
+        <v>509</v>
+      </c>
+      <c r="S6" s="132" t="s">
+        <v>510</v>
+      </c>
+      <c r="T6" s="134" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O7" s="143" t="s">
-        <v>666</v>
-      </c>
-      <c r="P7" s="143" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q7" s="143" t="s">
+      <c r="O7" s="142" t="s">
+        <v>652</v>
+      </c>
+      <c r="P7" s="142" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q7" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="144" t="s">
-        <v>670</v>
-      </c>
-      <c r="U7" s="143"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="143" t="s">
+        <v>656</v>
+      </c>
+      <c r="U7" s="142"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J8" s="9"/>
-      <c r="O8" s="143" t="s">
-        <v>668</v>
-      </c>
-      <c r="P8" s="143" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q8" s="143" t="s">
+      <c r="O8" s="142" t="s">
+        <v>654</v>
+      </c>
+      <c r="P8" s="142" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q8" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="144" t="s">
-        <v>669</v>
-      </c>
-      <c r="U8" s="143"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="143" t="s">
+        <v>655</v>
+      </c>
+      <c r="U8" s="142"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T9" s="143"/>
+      <c r="T9" s="142"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3:I6">
@@ -9932,10 +10037,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10024,34 +10129,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="5" width="21.140625" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="21.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -10164,25 +10269,25 @@
       <c r="A2" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="120" t="s">
         <v>409</v>
       </c>
       <c r="I2" s="53" t="s">
@@ -10194,25 +10299,25 @@
       <c r="K2" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="L2" s="121" t="s">
+      <c r="L2" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="M2" s="121" t="s">
+      <c r="M2" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="N2" s="147" t="s">
-        <v>673</v>
+      <c r="N2" s="146" t="s">
+        <v>659</v>
       </c>
       <c r="O2" s="60"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
       <c r="Y2" s="53" t="s">
         <v>98</v>
       </c>
@@ -10222,39 +10327,39 @@
       <c r="AA2" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AB2" s="121" t="s">
+      <c r="AB2" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="120" t="s">
         <v>409</v>
       </c>
       <c r="I3" s="53" t="s">
@@ -10266,20 +10371,20 @@
       <c r="K3" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="L3" s="121" t="s">
+      <c r="L3" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="M3" s="121" t="s">
+      <c r="M3" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="147" t="s">
-        <v>673</v>
-      </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121" t="s">
+      <c r="N3" s="146" t="s">
+        <v>659</v>
+      </c>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="Q3" s="121" t="s">
+      <c r="Q3" s="120" t="s">
         <v>30</v>
       </c>
       <c r="R3" s="53" t="s">
@@ -10294,17 +10399,17 @@
       <c r="U3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121" t="s">
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
+      <c r="AC3" s="120"/>
+      <c r="AD3" s="120"/>
       <c r="AE3" s="53" t="s">
         <v>180</v>
       </c>
@@ -10322,23 +10427,23 @@
       <c r="A4" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="120" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="61"/>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="120" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="120" t="s">
         <v>409</v>
       </c>
       <c r="I4" s="61"/>
@@ -10348,16 +10453,16 @@
       <c r="K4" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="L4" s="121" t="s">
+      <c r="L4" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="M4" s="121" t="s">
+      <c r="M4" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="N4" s="147" t="s">
-        <v>673</v>
-      </c>
-      <c r="O4" s="121"/>
+      <c r="N4" s="146" t="s">
+        <v>659</v>
+      </c>
+      <c r="O4" s="120"/>
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
       <c r="R4" s="61"/>
@@ -10379,40 +10484,40 @@
       <c r="AB4" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="AC4" s="121" t="s">
+      <c r="AC4" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="AD4" s="121" t="s">
+      <c r="AD4" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="H5" s="121" t="s">
+      <c r="H5" s="120" t="s">
         <v>409</v>
       </c>
       <c r="I5" s="53" t="s">
@@ -10424,16 +10529,16 @@
       <c r="K5" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="L5" s="121" t="s">
+      <c r="L5" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="M5" s="121" t="s">
+      <c r="M5" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="N5" s="147" t="s">
-        <v>673</v>
-      </c>
-      <c r="O5" s="121"/>
+      <c r="N5" s="146" t="s">
+        <v>659</v>
+      </c>
+      <c r="O5" s="120"/>
       <c r="P5" s="61"/>
       <c r="Q5" s="61"/>
       <c r="R5" s="61"/>
@@ -10452,39 +10557,39 @@
       <c r="AA5" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AB5" s="121" t="s">
+      <c r="AB5" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121"/>
-      <c r="AH5" s="121"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
+      <c r="AF5" s="120"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="120" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="120" t="s">
         <v>393</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="120" t="s">
         <v>390</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="120" t="s">
         <v>409</v>
       </c>
       <c r="I6" s="53" t="s">
@@ -10496,16 +10601,16 @@
       <c r="K6" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="M6" s="121" t="s">
+      <c r="M6" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="N6" s="147" t="s">
-        <v>673</v>
-      </c>
-      <c r="O6" s="121" t="s">
+      <c r="N6" s="146" t="s">
+        <v>659</v>
+      </c>
+      <c r="O6" s="120" t="s">
         <v>395</v>
       </c>
       <c r="P6" s="61"/>
@@ -10526,39 +10631,39 @@
       <c r="AA6" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="121" t="s">
+      <c r="AB6" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="121"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="120"/>
+      <c r="AH6" s="120"/>
     </row>
     <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H7" s="120" t="s">
         <v>409</v>
       </c>
       <c r="I7" s="53" t="s">
@@ -10570,19 +10675,19 @@
       <c r="K7" s="55" t="s">
         <v>410</v>
       </c>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="N7" s="147" t="s">
-        <v>673</v>
-      </c>
-      <c r="O7" s="146" t="s">
-        <v>514</v>
-      </c>
-      <c r="P7" s="121" t="s">
+      <c r="N7" s="146" t="s">
+        <v>659</v>
+      </c>
+      <c r="O7" s="145" t="s">
+        <v>500</v>
+      </c>
+      <c r="P7" s="120" t="s">
         <v>30</v>
       </c>
       <c r="Q7" s="53" t="s">
@@ -10597,17 +10702,17 @@
       <c r="T7" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121" t="s">
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="120"/>
       <c r="AD7" s="53" t="s">
         <v>180</v>
       </c>
@@ -10620,8 +10725,8 @@
       <c r="AG7" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="115"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="114"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
@@ -10639,33 +10744,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView topLeftCell="AF1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="74" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="74" width="10.42578125" collapsed="true"/>
-    <col min="3" max="5" style="74" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="74" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="74" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="74" width="17.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="74" width="16.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="74" width="13.0" collapsed="true"/>
-    <col min="11" max="29" style="74" width="9.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="74" width="16.28515625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="74" width="17.7109375" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="74" width="20.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="74" width="24.5703125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="74" width="26.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="74" width="18.7109375" collapsed="true"/>
-    <col min="36" max="37" style="74" width="9.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="74" width="13.28515625" collapsed="true"/>
-    <col min="39" max="41" style="74" width="9.140625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="74" width="15.7109375" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="74" width="13.0" collapsed="true"/>
-    <col min="44" max="16384" style="74" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9.140625" style="74" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" style="74" customWidth="1" collapsed="1"/>
+    <col min="11" max="29" width="9.140625" style="74" collapsed="1"/>
+    <col min="30" max="30" width="16.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="24.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26" style="74" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="9.140625" style="74" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="39" max="41" width="9.140625" style="74" collapsed="1"/>
+    <col min="42" max="42" width="15.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13" style="74" customWidth="1" collapsed="1"/>
+    <col min="44" max="16384" width="9.140625" style="74" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -10798,65 +10903,65 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="144" t="s">
-        <v>683</v>
-      </c>
-      <c r="C2" s="144" t="s">
-        <v>684</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>580</v>
-      </c>
-      <c r="E2" s="144" t="s">
-        <v>685</v>
-      </c>
-      <c r="F2" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="G2" s="144" t="s">
-        <v>683</v>
-      </c>
-      <c r="H2" s="144" t="s">
-        <v>684</v>
-      </c>
-      <c r="I2" s="144" t="s">
-        <v>580</v>
-      </c>
-      <c r="J2" s="144" t="s">
-        <v>685</v>
-      </c>
-      <c r="K2" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="L2" s="144" t="s">
-        <v>683</v>
-      </c>
-      <c r="M2" s="144" t="s">
-        <v>684</v>
-      </c>
-      <c r="N2" s="144" t="s">
-        <v>580</v>
-      </c>
-      <c r="O2" s="144" t="s">
-        <v>685</v>
-      </c>
-      <c r="P2" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q2" s="144" t="s">
-        <v>683</v>
-      </c>
-      <c r="R2" s="144" t="s">
-        <v>684</v>
-      </c>
-      <c r="S2" s="144" t="s">
-        <v>580</v>
-      </c>
-      <c r="T2" s="144" t="s">
-        <v>685</v>
+      <c r="A2" s="143" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" s="143" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" s="143" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="143" t="s">
+        <v>566</v>
+      </c>
+      <c r="E2" s="143" t="s">
+        <v>669</v>
+      </c>
+      <c r="F2" s="143" t="s">
+        <v>543</v>
+      </c>
+      <c r="G2" s="143" t="s">
+        <v>667</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>668</v>
+      </c>
+      <c r="I2" s="143" t="s">
+        <v>566</v>
+      </c>
+      <c r="J2" s="143" t="s">
+        <v>669</v>
+      </c>
+      <c r="K2" s="143" t="s">
+        <v>543</v>
+      </c>
+      <c r="L2" s="143" t="s">
+        <v>667</v>
+      </c>
+      <c r="M2" s="143" t="s">
+        <v>668</v>
+      </c>
+      <c r="N2" s="143" t="s">
+        <v>566</v>
+      </c>
+      <c r="O2" s="143" t="s">
+        <v>669</v>
+      </c>
+      <c r="P2" s="143" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q2" s="143" t="s">
+        <v>667</v>
+      </c>
+      <c r="R2" s="143" t="s">
+        <v>668</v>
+      </c>
+      <c r="S2" s="143" t="s">
+        <v>566</v>
+      </c>
+      <c r="T2" s="143" t="s">
+        <v>669</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>138</v>
@@ -10926,64 +11031,64 @@
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="143">
+      <c r="A3" s="142">
         <v>0.38</v>
       </c>
-      <c r="B3" s="143">
+      <c r="B3" s="142">
         <v>0.66</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="142">
         <v>1.22</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="142">
         <v>0.99</v>
       </c>
-      <c r="E3" s="143">
+      <c r="E3" s="142">
         <v>0.33</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="142">
         <v>0.98</v>
       </c>
-      <c r="G3" s="143">
+      <c r="G3" s="142">
         <v>0.66</v>
       </c>
-      <c r="H3" s="143">
+      <c r="H3" s="142">
         <v>1.22</v>
       </c>
-      <c r="I3" s="143">
+      <c r="I3" s="142">
         <v>0.99</v>
       </c>
-      <c r="J3" s="143">
+      <c r="J3" s="142">
         <v>0.33</v>
       </c>
-      <c r="K3" s="143">
+      <c r="K3" s="142">
         <v>0.98</v>
       </c>
-      <c r="L3" s="143">
+      <c r="L3" s="142">
         <v>0.66</v>
       </c>
-      <c r="M3" s="143">
+      <c r="M3" s="142">
         <v>1.22</v>
       </c>
-      <c r="N3" s="143">
+      <c r="N3" s="142">
         <v>0.99</v>
       </c>
-      <c r="O3" s="143">
+      <c r="O3" s="142">
         <v>0.33</v>
       </c>
-      <c r="P3" s="143">
+      <c r="P3" s="142">
         <v>0.98</v>
       </c>
-      <c r="Q3" s="143">
+      <c r="Q3" s="142">
         <v>0.66</v>
       </c>
-      <c r="R3" s="143">
+      <c r="R3" s="142">
         <v>1.22</v>
       </c>
-      <c r="S3" s="143">
+      <c r="S3" s="142">
         <v>0.99</v>
       </c>
-      <c r="T3" s="143">
+      <c r="T3" s="142">
         <v>0.33</v>
       </c>
       <c r="U3" s="74">
@@ -11048,64 +11153,64 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="143">
+      <c r="A4" s="142">
         <v>0.32</v>
       </c>
-      <c r="B4" s="143">
+      <c r="B4" s="142">
         <v>0.66</v>
       </c>
-      <c r="C4" s="143">
+      <c r="C4" s="142">
         <v>1.22</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="142">
         <v>0.99</v>
       </c>
-      <c r="E4" s="143">
+      <c r="E4" s="142">
         <v>0.33</v>
       </c>
-      <c r="F4" s="143">
+      <c r="F4" s="142">
         <v>0.98</v>
       </c>
-      <c r="G4" s="143">
+      <c r="G4" s="142">
         <v>0.66</v>
       </c>
-      <c r="H4" s="143">
+      <c r="H4" s="142">
         <v>1.22</v>
       </c>
-      <c r="I4" s="143">
+      <c r="I4" s="142">
         <v>0.99</v>
       </c>
-      <c r="J4" s="143">
+      <c r="J4" s="142">
         <v>0.33</v>
       </c>
-      <c r="K4" s="143">
+      <c r="K4" s="142">
         <v>0.98</v>
       </c>
-      <c r="L4" s="143">
+      <c r="L4" s="142">
         <v>0.66</v>
       </c>
-      <c r="M4" s="143">
+      <c r="M4" s="142">
         <v>1.22</v>
       </c>
-      <c r="N4" s="143">
+      <c r="N4" s="142">
         <v>0.99</v>
       </c>
-      <c r="O4" s="143">
+      <c r="O4" s="142">
         <v>0.33</v>
       </c>
-      <c r="P4" s="143">
+      <c r="P4" s="142">
         <v>0.98</v>
       </c>
-      <c r="Q4" s="143">
+      <c r="Q4" s="142">
         <v>0.66</v>
       </c>
-      <c r="R4" s="143">
+      <c r="R4" s="142">
         <v>1.22</v>
       </c>
-      <c r="S4" s="143">
+      <c r="S4" s="142">
         <v>0.99</v>
       </c>
-      <c r="T4" s="143">
+      <c r="T4" s="142">
         <v>0.33</v>
       </c>
       <c r="U4" s="74">
@@ -11170,64 +11275,64 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="143">
+      <c r="A5" s="142">
         <v>0.48</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="142">
         <v>0.66</v>
       </c>
-      <c r="C5" s="143">
+      <c r="C5" s="142">
         <v>1.22</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="142">
         <v>0.99</v>
       </c>
-      <c r="E5" s="143">
+      <c r="E5" s="142">
         <v>0.33</v>
       </c>
-      <c r="F5" s="143">
+      <c r="F5" s="142">
         <v>0.98</v>
       </c>
-      <c r="G5" s="143">
+      <c r="G5" s="142">
         <v>0.66</v>
       </c>
-      <c r="H5" s="143">
+      <c r="H5" s="142">
         <v>1.22</v>
       </c>
-      <c r="I5" s="143">
+      <c r="I5" s="142">
         <v>0.99</v>
       </c>
-      <c r="J5" s="143">
+      <c r="J5" s="142">
         <v>0.33</v>
       </c>
-      <c r="K5" s="143">
+      <c r="K5" s="142">
         <v>0.98</v>
       </c>
-      <c r="L5" s="143">
+      <c r="L5" s="142">
         <v>0.66</v>
       </c>
-      <c r="M5" s="143">
+      <c r="M5" s="142">
         <v>1.22</v>
       </c>
-      <c r="N5" s="143">
+      <c r="N5" s="142">
         <v>0.99</v>
       </c>
-      <c r="O5" s="143">
+      <c r="O5" s="142">
         <v>0.33</v>
       </c>
-      <c r="P5" s="143">
+      <c r="P5" s="142">
         <v>0.98</v>
       </c>
-      <c r="Q5" s="143">
+      <c r="Q5" s="142">
         <v>0.66</v>
       </c>
-      <c r="R5" s="143">
+      <c r="R5" s="142">
         <v>1.22</v>
       </c>
-      <c r="S5" s="143">
+      <c r="S5" s="142">
         <v>0.99</v>
       </c>
-      <c r="T5" s="143">
+      <c r="T5" s="142">
         <v>0.33</v>
       </c>
       <c r="U5" s="74">
@@ -11308,665 +11413,665 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="141" t="s">
+      <c r="D1" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="141" t="s">
+      <c r="G1" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="141" t="s">
+      <c r="I1" s="140" t="s">
+        <v>512</v>
+      </c>
+      <c r="J1" s="140" t="s">
+        <v>513</v>
+      </c>
+      <c r="K1" s="142" t="s">
+        <v>514</v>
+      </c>
+      <c r="L1" s="142" t="s">
+        <v>515</v>
+      </c>
+      <c r="M1" s="142" t="s">
+        <v>516</v>
+      </c>
+      <c r="N1" s="142" t="s">
+        <v>517</v>
+      </c>
+      <c r="O1" s="142" t="s">
+        <v>518</v>
+      </c>
+      <c r="P1" s="142" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q1" s="142" t="s">
+        <v>520</v>
+      </c>
+      <c r="R1" s="142" t="s">
+        <v>521</v>
+      </c>
+      <c r="S1" s="142" t="s">
+        <v>522</v>
+      </c>
+      <c r="T1" s="142" t="s">
+        <v>523</v>
+      </c>
+      <c r="U1" s="142" t="s">
+        <v>524</v>
+      </c>
+      <c r="V1" s="142" t="s">
+        <v>525</v>
+      </c>
+      <c r="W1" s="142" t="s">
         <v>526</v>
       </c>
-      <c r="J1" s="141" t="s">
+      <c r="X1" s="142" t="s">
         <v>527</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="Y1" s="142" t="s">
         <v>528</v>
       </c>
-      <c r="L1" s="143" t="s">
+      <c r="Z1" s="142" t="s">
         <v>529</v>
       </c>
-      <c r="M1" s="143" t="s">
+      <c r="AA1" s="142" t="s">
         <v>530</v>
       </c>
-      <c r="N1" s="143" t="s">
+      <c r="AB1" s="142" t="s">
         <v>531</v>
       </c>
-      <c r="O1" s="143" t="s">
+      <c r="AC1" s="142" t="s">
         <v>532</v>
       </c>
-      <c r="P1" s="143" t="s">
+      <c r="AD1" s="142" t="s">
         <v>533</v>
       </c>
-      <c r="Q1" s="143" t="s">
+      <c r="AE1" s="142" t="s">
         <v>534</v>
       </c>
-      <c r="R1" s="143" t="s">
+      <c r="AF1" s="142" t="s">
         <v>535</v>
       </c>
-      <c r="S1" s="143" t="s">
+      <c r="AG1" s="142" t="s">
         <v>536</v>
       </c>
-      <c r="T1" s="143" t="s">
+      <c r="AH1" s="142" t="s">
         <v>537</v>
       </c>
-      <c r="U1" s="143" t="s">
+      <c r="AI1" s="142" t="s">
         <v>538</v>
       </c>
-      <c r="V1" s="143" t="s">
+      <c r="AJ1" s="142" t="s">
         <v>539</v>
       </c>
-      <c r="W1" s="143" t="s">
+      <c r="AK1" s="142" t="s">
         <v>540</v>
       </c>
-      <c r="X1" s="143" t="s">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="140" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="143" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="142" t="s">
+        <v>234</v>
+      </c>
+      <c r="M2" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="143" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="143" t="s">
+        <v>487</v>
+      </c>
+      <c r="P2" s="143" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" s="143" t="s">
         <v>541</v>
       </c>
-      <c r="Y1" s="143" t="s">
+      <c r="R2" s="143" t="s">
         <v>542</v>
       </c>
-      <c r="Z1" s="143" t="s">
+      <c r="S2" s="143" t="s">
         <v>543</v>
       </c>
-      <c r="AA1" s="143" t="s">
+      <c r="T2" s="143" t="s">
         <v>544</v>
       </c>
-      <c r="AB1" s="143" t="s">
+      <c r="U2" s="143" t="s">
         <v>545</v>
       </c>
-      <c r="AC1" s="143" t="s">
+      <c r="V2" s="143" t="s">
         <v>546</v>
       </c>
-      <c r="AD1" s="143" t="s">
+      <c r="W2" s="143" t="s">
         <v>547</v>
       </c>
-      <c r="AE1" s="143" t="s">
+      <c r="X2" s="143" t="s">
         <v>548</v>
       </c>
-      <c r="AF1" s="143" t="s">
+      <c r="Y2" s="143" t="s">
         <v>549</v>
       </c>
-      <c r="AG1" s="143" t="s">
+      <c r="Z2" s="143" t="s">
         <v>550</v>
       </c>
-      <c r="AH1" s="143" t="s">
+      <c r="AA2" s="143" t="s">
         <v>551</v>
       </c>
-      <c r="AI1" s="143" t="s">
+      <c r="AB2" s="143" t="s">
         <v>552</v>
       </c>
-      <c r="AJ1" s="143" t="s">
+      <c r="AC2" s="143" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD2" s="143" t="s">
         <v>553</v>
       </c>
-      <c r="AK1" s="143" t="s">
+      <c r="AE2" s="143" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="AF2" s="143" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG2" s="143" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH2" s="143" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI2" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ2" s="143" t="s">
+        <v>558</v>
+      </c>
+      <c r="AK2" s="143" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="143" t="s">
+        <v>560</v>
+      </c>
+      <c r="L3" s="142" t="s">
+        <v>561</v>
+      </c>
+      <c r="M3" s="143" t="s">
+        <v>562</v>
+      </c>
+      <c r="N3" s="143" t="s">
+        <v>483</v>
+      </c>
+      <c r="O3" s="143" t="s">
+        <v>563</v>
+      </c>
+      <c r="P3" s="143" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q3" s="143" t="s">
+        <v>564</v>
+      </c>
+      <c r="R3" s="143" t="s">
+        <v>565</v>
+      </c>
+      <c r="S3" s="143" t="s">
+        <v>566</v>
+      </c>
+      <c r="T3" s="143" t="s">
+        <v>567</v>
+      </c>
+      <c r="U3" s="143" t="s">
+        <v>568</v>
+      </c>
+      <c r="V3" s="143" t="s">
+        <v>569</v>
+      </c>
+      <c r="W3" s="143" t="s">
+        <v>570</v>
+      </c>
+      <c r="X3" s="143" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y3" s="143" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z3" s="143" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA3" s="143" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB3" s="143" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC3" s="143" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD3" s="143" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE3" s="143" t="s">
+        <v>577</v>
+      </c>
+      <c r="AF3" s="143" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG3" s="143" t="s">
+        <v>579</v>
+      </c>
+      <c r="AH3" s="143" t="s">
+        <v>580</v>
+      </c>
+      <c r="AI3" s="143" t="s">
+        <v>562</v>
+      </c>
+      <c r="AJ3" s="143" t="s">
+        <v>581</v>
+      </c>
+      <c r="AK3" s="143" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="140" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="143" t="s">
+        <v>480</v>
+      </c>
+      <c r="L4" s="142" t="s">
+        <v>478</v>
+      </c>
+      <c r="M4" s="143" t="s">
+        <v>584</v>
+      </c>
+      <c r="N4" s="143" t="s">
+        <v>473</v>
+      </c>
+      <c r="O4" s="143" t="s">
+        <v>585</v>
+      </c>
+      <c r="P4" s="143" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="143" t="s">
+        <v>586</v>
+      </c>
+      <c r="R4" s="143" t="s">
+        <v>587</v>
+      </c>
+      <c r="S4" s="143" t="s">
+        <v>588</v>
+      </c>
+      <c r="T4" s="143" t="s">
+        <v>589</v>
+      </c>
+      <c r="U4" s="143" t="s">
+        <v>590</v>
+      </c>
+      <c r="V4" s="143" t="s">
+        <v>591</v>
+      </c>
+      <c r="W4" s="143" t="s">
+        <v>592</v>
+      </c>
+      <c r="X4" s="143" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y4" s="143" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z4" s="143" t="s">
+        <v>595</v>
+      </c>
+      <c r="AA4" s="143" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB4" s="143" t="s">
+        <v>597</v>
+      </c>
+      <c r="AC4" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD4" s="143" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE4" s="143" t="s">
+        <v>598</v>
+      </c>
+      <c r="AF4" s="143" t="s">
+        <v>599</v>
+      </c>
+      <c r="AG4" s="143" t="s">
+        <v>600</v>
+      </c>
+      <c r="AH4" s="143" t="s">
+        <v>601</v>
+      </c>
+      <c r="AI4" s="143" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ4" s="143" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK4" s="143" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="140" t="s">
+        <v>604</v>
+      </c>
+      <c r="B5" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="141" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="141" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="141" t="s">
+        <v>606</v>
+      </c>
+      <c r="H5" s="141" t="s">
+        <v>607</v>
+      </c>
+      <c r="I5" s="141" t="s">
+        <v>487</v>
+      </c>
+      <c r="J5" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="143" t="s">
+        <v>608</v>
+      </c>
+      <c r="L5" s="142" t="s">
+        <v>609</v>
+      </c>
+      <c r="M5" s="143" t="s">
+        <v>610</v>
+      </c>
+      <c r="N5" s="143" t="s">
+        <v>484</v>
+      </c>
+      <c r="O5" s="143" t="s">
+        <v>611</v>
+      </c>
+      <c r="P5" s="143" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q5" s="143" t="s">
+        <v>612</v>
+      </c>
+      <c r="R5" s="143" t="s">
+        <v>613</v>
+      </c>
+      <c r="S5" s="143" t="s">
+        <v>614</v>
+      </c>
+      <c r="T5" s="143" t="s">
+        <v>615</v>
+      </c>
+      <c r="U5" s="143" t="s">
+        <v>616</v>
+      </c>
+      <c r="V5" s="143" t="s">
+        <v>617</v>
+      </c>
+      <c r="W5" s="143" t="s">
+        <v>618</v>
+      </c>
+      <c r="X5" s="143" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y5" s="143" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z5" s="143" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA5" s="143" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB5" s="143" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC5" s="143" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD5" s="143" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE5" s="143" t="s">
+        <v>623</v>
+      </c>
+      <c r="AF5" s="143" t="s">
+        <v>624</v>
+      </c>
+      <c r="AG5" s="143" t="s">
+        <v>625</v>
+      </c>
+      <c r="AH5" s="143" t="s">
+        <v>626</v>
+      </c>
+      <c r="AI5" s="143" t="s">
+        <v>610</v>
+      </c>
+      <c r="AJ5" s="143" t="s">
+        <v>627</v>
+      </c>
+      <c r="AK5" s="143" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C6" s="141" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D6" s="141" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E6" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F6" s="141" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="142" t="s">
+      <c r="G6" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="142" t="s">
+      <c r="H6" s="141" t="s">
         <v>260</v>
       </c>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="144" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="143" t="s">
-        <v>234</v>
-      </c>
-      <c r="M2" s="144" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="144" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="144" t="s">
-        <v>492</v>
-      </c>
-      <c r="P2" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q2" s="144" t="s">
-        <v>555</v>
-      </c>
-      <c r="R2" s="144" t="s">
-        <v>556</v>
-      </c>
-      <c r="S2" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="T2" s="144" t="s">
-        <v>558</v>
-      </c>
-      <c r="U2" s="144" t="s">
-        <v>559</v>
-      </c>
-      <c r="V2" s="144" t="s">
-        <v>560</v>
-      </c>
-      <c r="W2" s="144" t="s">
-        <v>561</v>
-      </c>
-      <c r="X2" s="144" t="s">
-        <v>562</v>
-      </c>
-      <c r="Y2" s="144" t="s">
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="143" t="s">
+        <v>629</v>
+      </c>
+      <c r="L6" s="142" t="s">
+        <v>630</v>
+      </c>
+      <c r="M6" s="143" t="s">
+        <v>631</v>
+      </c>
+      <c r="N6" s="143" t="s">
+        <v>632</v>
+      </c>
+      <c r="O6" s="143" t="s">
+        <v>607</v>
+      </c>
+      <c r="P6" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q6" s="143" t="s">
+        <v>633</v>
+      </c>
+      <c r="R6" s="143" t="s">
+        <v>634</v>
+      </c>
+      <c r="S6" s="143" t="s">
+        <v>635</v>
+      </c>
+      <c r="T6" s="143" t="s">
+        <v>636</v>
+      </c>
+      <c r="U6" s="143" t="s">
+        <v>637</v>
+      </c>
+      <c r="V6" s="143" t="s">
+        <v>638</v>
+      </c>
+      <c r="W6" s="143" t="s">
+        <v>639</v>
+      </c>
+      <c r="X6" s="143" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y6" s="143" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z6" s="143" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA6" s="143" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB6" s="143" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC6" s="143" t="s">
         <v>563</v>
       </c>
-      <c r="Z2" s="144" t="s">
-        <v>564</v>
-      </c>
-      <c r="AA2" s="144" t="s">
-        <v>565</v>
-      </c>
-      <c r="AB2" s="144" t="s">
-        <v>566</v>
-      </c>
-      <c r="AC2" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD2" s="144" t="s">
-        <v>567</v>
-      </c>
-      <c r="AE2" s="144" t="s">
-        <v>568</v>
-      </c>
-      <c r="AF2" s="144" t="s">
-        <v>569</v>
-      </c>
-      <c r="AG2" s="144" t="s">
-        <v>570</v>
-      </c>
-      <c r="AH2" s="144" t="s">
-        <v>571</v>
-      </c>
-      <c r="AI2" s="144" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ2" s="144" t="s">
-        <v>572</v>
-      </c>
-      <c r="AK2" s="144" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="141" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="142" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="142" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="144" t="s">
-        <v>574</v>
-      </c>
-      <c r="L3" s="143" t="s">
-        <v>575</v>
-      </c>
-      <c r="M3" s="144" t="s">
-        <v>576</v>
-      </c>
-      <c r="N3" s="144" t="s">
-        <v>488</v>
-      </c>
-      <c r="O3" s="144" t="s">
-        <v>577</v>
-      </c>
-      <c r="P3" s="144" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q3" s="144" t="s">
-        <v>578</v>
-      </c>
-      <c r="R3" s="144" t="s">
-        <v>579</v>
-      </c>
-      <c r="S3" s="144" t="s">
-        <v>580</v>
-      </c>
-      <c r="T3" s="144" t="s">
-        <v>581</v>
-      </c>
-      <c r="U3" s="144" t="s">
-        <v>582</v>
-      </c>
-      <c r="V3" s="144" t="s">
-        <v>583</v>
-      </c>
-      <c r="W3" s="144" t="s">
-        <v>584</v>
-      </c>
-      <c r="X3" s="144" t="s">
-        <v>585</v>
-      </c>
-      <c r="Y3" s="144" t="s">
-        <v>586</v>
-      </c>
-      <c r="Z3" s="144" t="s">
-        <v>587</v>
-      </c>
-      <c r="AA3" s="144" t="s">
-        <v>588</v>
-      </c>
-      <c r="AB3" s="144" t="s">
-        <v>589</v>
-      </c>
-      <c r="AC3" s="144" t="s">
-        <v>495</v>
-      </c>
-      <c r="AD3" s="144" t="s">
-        <v>590</v>
-      </c>
-      <c r="AE3" s="144" t="s">
-        <v>591</v>
-      </c>
-      <c r="AF3" s="144" t="s">
-        <v>592</v>
-      </c>
-      <c r="AG3" s="144" t="s">
-        <v>593</v>
-      </c>
-      <c r="AH3" s="144" t="s">
-        <v>594</v>
-      </c>
-      <c r="AI3" s="144" t="s">
-        <v>576</v>
-      </c>
-      <c r="AJ3" s="144" t="s">
-        <v>595</v>
-      </c>
-      <c r="AK3" s="144" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
-        <v>597</v>
-      </c>
-      <c r="B4" s="141" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="142" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="142" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="144" t="s">
-        <v>482</v>
-      </c>
-      <c r="L4" s="143" t="s">
-        <v>479</v>
-      </c>
-      <c r="M4" s="144" t="s">
-        <v>598</v>
-      </c>
-      <c r="N4" s="144" t="s">
-        <v>473</v>
-      </c>
-      <c r="O4" s="144" t="s">
-        <v>599</v>
-      </c>
-      <c r="P4" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q4" s="144" t="s">
-        <v>600</v>
-      </c>
-      <c r="R4" s="144" t="s">
-        <v>601</v>
-      </c>
-      <c r="S4" s="144" t="s">
-        <v>602</v>
-      </c>
-      <c r="T4" s="144" t="s">
-        <v>603</v>
-      </c>
-      <c r="U4" s="144" t="s">
-        <v>604</v>
-      </c>
-      <c r="V4" s="144" t="s">
-        <v>605</v>
-      </c>
-      <c r="W4" s="144" t="s">
-        <v>606</v>
-      </c>
-      <c r="X4" s="144" t="s">
-        <v>607</v>
-      </c>
-      <c r="Y4" s="144" t="s">
-        <v>608</v>
-      </c>
-      <c r="Z4" s="144" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA4" s="144" t="s">
-        <v>610</v>
-      </c>
-      <c r="AB4" s="144" t="s">
-        <v>611</v>
-      </c>
-      <c r="AC4" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD4" s="144" t="s">
-        <v>499</v>
-      </c>
-      <c r="AE4" s="144" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF4" s="144" t="s">
-        <v>613</v>
-      </c>
-      <c r="AG4" s="144" t="s">
-        <v>614</v>
-      </c>
-      <c r="AH4" s="144" t="s">
-        <v>615</v>
-      </c>
-      <c r="AI4" s="144" t="s">
-        <v>598</v>
-      </c>
-      <c r="AJ4" s="144" t="s">
-        <v>616</v>
-      </c>
-      <c r="AK4" s="144" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
-        <v>618</v>
-      </c>
-      <c r="B5" s="141" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="142" t="s">
-        <v>619</v>
-      </c>
-      <c r="F5" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="142" t="s">
-        <v>620</v>
-      </c>
-      <c r="H5" s="142" t="s">
-        <v>621</v>
-      </c>
-      <c r="I5" s="142" t="s">
-        <v>492</v>
-      </c>
-      <c r="J5" s="142" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" s="144" t="s">
-        <v>622</v>
-      </c>
-      <c r="L5" s="143" t="s">
-        <v>623</v>
-      </c>
-      <c r="M5" s="144" t="s">
-        <v>624</v>
-      </c>
-      <c r="N5" s="144" t="s">
-        <v>489</v>
-      </c>
-      <c r="O5" s="144" t="s">
-        <v>625</v>
-      </c>
-      <c r="P5" s="144" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q5" s="144" t="s">
-        <v>626</v>
-      </c>
-      <c r="R5" s="144" t="s">
-        <v>627</v>
-      </c>
-      <c r="S5" s="144" t="s">
-        <v>628</v>
-      </c>
-      <c r="T5" s="144" t="s">
-        <v>629</v>
-      </c>
-      <c r="U5" s="144" t="s">
-        <v>630</v>
-      </c>
-      <c r="V5" s="144" t="s">
+      <c r="AD6" s="143" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE6" s="143" t="s">
+        <v>645</v>
+      </c>
+      <c r="AF6" s="143" t="s">
+        <v>646</v>
+      </c>
+      <c r="AG6" s="143" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH6" s="143" t="s">
+        <v>648</v>
+      </c>
+      <c r="AI6" s="143" t="s">
         <v>631</v>
       </c>
-      <c r="W5" s="144" t="s">
-        <v>632</v>
-      </c>
-      <c r="X5" s="144" t="s">
-        <v>633</v>
-      </c>
-      <c r="Y5" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="Z5" s="144" t="s">
-        <v>634</v>
-      </c>
-      <c r="AA5" s="144" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB5" s="144" t="s">
-        <v>630</v>
-      </c>
-      <c r="AC5" s="144" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD5" s="144" t="s">
-        <v>636</v>
-      </c>
-      <c r="AE5" s="144" t="s">
-        <v>637</v>
-      </c>
-      <c r="AF5" s="144" t="s">
-        <v>638</v>
-      </c>
-      <c r="AG5" s="144" t="s">
-        <v>639</v>
-      </c>
-      <c r="AH5" s="144" t="s">
-        <v>640</v>
-      </c>
-      <c r="AI5" s="144" t="s">
-        <v>624</v>
-      </c>
-      <c r="AJ5" s="144" t="s">
-        <v>641</v>
-      </c>
-      <c r="AK5" s="144" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="141" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="141" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="E6" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="142" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="142" t="s">
-        <v>236</v>
-      </c>
-      <c r="H6" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="144" t="s">
-        <v>643</v>
-      </c>
-      <c r="L6" s="143" t="s">
-        <v>644</v>
-      </c>
-      <c r="M6" s="144" t="s">
-        <v>645</v>
-      </c>
-      <c r="N6" s="144" t="s">
-        <v>646</v>
-      </c>
-      <c r="O6" s="144" t="s">
-        <v>621</v>
-      </c>
-      <c r="P6" s="144" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q6" s="144" t="s">
-        <v>647</v>
-      </c>
-      <c r="R6" s="144" t="s">
-        <v>648</v>
-      </c>
-      <c r="S6" s="144" t="s">
+      <c r="AJ6" s="143" t="s">
         <v>649</v>
       </c>
-      <c r="T6" s="144" t="s">
+      <c r="AK6" s="143" t="s">
         <v>650</v>
-      </c>
-      <c r="U6" s="144" t="s">
-        <v>651</v>
-      </c>
-      <c r="V6" s="144" t="s">
-        <v>652</v>
-      </c>
-      <c r="W6" s="144" t="s">
-        <v>653</v>
-      </c>
-      <c r="X6" s="144" t="s">
-        <v>654</v>
-      </c>
-      <c r="Y6" s="144" t="s">
-        <v>580</v>
-      </c>
-      <c r="Z6" s="144" t="s">
-        <v>655</v>
-      </c>
-      <c r="AA6" s="144" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB6" s="144" t="s">
-        <v>657</v>
-      </c>
-      <c r="AC6" s="144" t="s">
-        <v>577</v>
-      </c>
-      <c r="AD6" s="144" t="s">
-        <v>658</v>
-      </c>
-      <c r="AE6" s="144" t="s">
-        <v>659</v>
-      </c>
-      <c r="AF6" s="144" t="s">
-        <v>660</v>
-      </c>
-      <c r="AG6" s="144" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH6" s="144" t="s">
-        <v>662</v>
-      </c>
-      <c r="AI6" s="144" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ6" s="144" t="s">
-        <v>663</v>
-      </c>
-      <c r="AK6" s="144" t="s">
-        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/ArcTest.xlsx
+++ b/ArcTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Group 10\git\USGBCArc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04018FAE-F3D7-49BC-88AF-DBEB516B6998}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBF4505E-6CFF-41D7-8E35-98DFC9E97D8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2101,9 +2101,6 @@
     <t/>
   </si>
   <si>
-    <t>Building Portfolio 154542</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
@@ -2168,6 +2165,9 @@
   </si>
   <si>
     <t>6,8,9,2,5</t>
+  </si>
+  <si>
+    <t>Building Portfolio 111532</t>
   </si>
 </sst>
 </file>
@@ -3541,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:BS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3578,7 @@
     <col min="36" max="36" width="11.85546875" style="74" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="9.140625" style="74" collapsed="1"/>
     <col min="38" max="38" width="13.85546875" style="74" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="13.85546875" style="142" customWidth="1"/>
+    <col min="39" max="39" width="13.85546875" style="142" customWidth="1" collapsed="1"/>
     <col min="40" max="40" width="22.42578125" style="74" customWidth="1" collapsed="1"/>
     <col min="41" max="69" width="9.140625" style="74" collapsed="1"/>
     <col min="70" max="70" width="16.28515625" style="74" customWidth="1" collapsed="1"/>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="B2" s="74" t="s">
         <v>475</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="AM3" s="143"/>
       <c r="AN3" s="143" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AO3" s="74" t="s">
         <v>199</v>
@@ -4258,7 +4258,7 @@
         <v>30</v>
       </c>
       <c r="AB4" s="143" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AC4" s="74" t="s">
         <v>327</v>
@@ -4288,7 +4288,7 @@
         <v>231</v>
       </c>
       <c r="AN4" s="143" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.25">
@@ -4383,7 +4383,7 @@
         <v>248</v>
       </c>
       <c r="AN5" s="149" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
@@ -4442,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="AB6" s="143" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AC6" s="74" t="s">
         <v>292</v>
@@ -4478,7 +4478,7 @@
         <v>44</v>
       </c>
       <c r="AN6" s="143" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
@@ -4567,7 +4567,7 @@
         <v>329</v>
       </c>
       <c r="AN7" s="143" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.25">
@@ -4626,7 +4626,7 @@
         <v>17</v>
       </c>
       <c r="AB8" s="143" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AC8" s="74" t="s">
         <v>292</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="AM8" s="143"/>
       <c r="AN8" s="143" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
         <v>329</v>
       </c>
       <c r="AN9" s="143" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
@@ -4844,7 +4844,7 @@
         <v>249</v>
       </c>
       <c r="AN10" s="143" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="AM11" s="143"/>
       <c r="AN11" s="143" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.25">
@@ -4946,23 +4946,23 @@
       <c r="AB13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AH13" s="143" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AI13" s="143" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AJ13" s="143" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AK13" s="143" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AL13" s="143" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AM13" s="143"/>
       <c r="AN13" s="143" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.25">
@@ -5012,16 +5012,16 @@
         <v>25.375</v>
       </c>
       <c r="AB16" s="103" t="s">
+        <v>687</v>
+      </c>
+      <c r="AH16" s="103" t="s">
+        <v>678</v>
+      </c>
+      <c r="AI16" s="103" t="s">
         <v>688</v>
       </c>
-      <c r="AH16" s="103" t="s">
-        <v>679</v>
-      </c>
-      <c r="AI16" s="103" t="s">
+      <c r="AJ16" s="103" t="s">
         <v>689</v>
-      </c>
-      <c r="AJ16" s="103" t="s">
-        <v>690</v>
       </c>
       <c r="AK16" s="103" t="s">
         <v>637</v>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="AM16" s="103"/>
       <c r="AN16" s="103" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="10:40" x14ac:dyDescent="0.25">
@@ -5063,11 +5063,11 @@
         <v>188</v>
       </c>
       <c r="AL17" s="104" t="s">
-        <v>491</v>
+        <v>231</v>
       </c>
       <c r="AM17" s="104"/>
       <c r="AN17" s="103" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="10:40" x14ac:dyDescent="0.25">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="AM18" s="104"/>
       <c r="AN18" s="103" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="10:40" x14ac:dyDescent="0.25">
@@ -5126,7 +5126,7 @@
         <v>25</v>
       </c>
       <c r="AB19" s="103" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AH19" s="104" t="s">
         <v>607</v>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="AM19" s="104"/>
       <c r="AN19" s="103" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="10:40" x14ac:dyDescent="0.25">

--- a/ArcTest.xlsx
+++ b/ArcTest.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Group 10\git\USGBCArc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\ARCKatalon(Saurav)\USGBCArc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{637772B0-6974-40D3-96E8-548EBBC40CD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9165FDC7-34CC-46CA-AEA9-1F53E4EF5D8E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USBuildingProject" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="687">
   <si>
     <t>Project Name</t>
   </si>
@@ -2113,12 +2113,6 @@
     <t>1000075328</t>
   </si>
   <si>
-    <t>1000075329</t>
-  </si>
-  <si>
-    <t>0011085032</t>
-  </si>
-  <si>
     <t>0.66</t>
   </si>
   <si>
@@ -2132,6 +2126,9 @@
   </si>
   <si>
     <t>0011085033</t>
+  </si>
+  <si>
+    <t>168</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2922,40 +2919,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="5" width="12.0" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="12" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -3466,7 +3464,9 @@
       <c r="V7" s="109"/>
       <c r="W7" s="109"/>
       <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
+      <c r="Y7" s="142" t="s">
+        <v>686</v>
+      </c>
       <c r="Z7" s="109"/>
       <c r="AA7" s="109" t="s">
         <v>129</v>
@@ -3510,40 +3510,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="74" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="74" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="74" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="74" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" style="74" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="74" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="74" width="20.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="74" width="19.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="74" width="11.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="74" width="35.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="74" width="12.85546875" collapsed="true"/>
-    <col min="12" max="12" style="74" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="74" width="14.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="74" width="15.28515625" collapsed="true"/>
-    <col min="15" max="16" customWidth="true" style="74" width="15.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="74" width="15.42578125" collapsed="true"/>
-    <col min="18" max="23" style="74" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="74" width="20.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="74" width="17.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="74" width="18.7109375" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="74" width="14.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="74" width="13.42578125" collapsed="true"/>
-    <col min="29" max="29" style="74" width="9.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="74" width="15.0" collapsed="true"/>
-    <col min="31" max="32" style="74" width="9.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="74" width="14.7109375" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="74" width="18.7109375" collapsed="true"/>
-    <col min="35" max="35" style="74" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="74" width="11.85546875" collapsed="true"/>
-    <col min="37" max="38" style="74" width="9.140625" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="74" width="22.42578125" collapsed="true"/>
-    <col min="40" max="68" style="74" width="9.140625" collapsed="true"/>
-    <col min="69" max="69" customWidth="true" style="74" width="16.28515625" collapsed="true"/>
-    <col min="70" max="16384" style="74" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" style="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="74" collapsed="1"/>
+    <col min="6" max="6" width="13.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="74" collapsed="1"/>
+    <col min="13" max="13" width="14" style="74" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="15" max="16" width="15.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="18" max="23" width="9.140625" style="74" collapsed="1"/>
+    <col min="24" max="24" width="20" style="74" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="17.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="18.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.140625" style="74" collapsed="1"/>
+    <col min="30" max="30" width="15" style="74" customWidth="1" collapsed="1"/>
+    <col min="31" max="32" width="9.140625" style="74" collapsed="1"/>
+    <col min="33" max="33" width="14.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="18.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="74" collapsed="1"/>
+    <col min="36" max="36" width="11.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="37" max="38" width="9.140625" style="74" collapsed="1"/>
+    <col min="39" max="39" width="22.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="40" max="68" width="9.140625" style="74" collapsed="1"/>
+    <col min="69" max="69" width="16.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="70" max="16384" width="9.140625" style="74" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
@@ -5595,22 +5595,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -5860,16 +5860,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="20.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="16.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="16.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="17.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="20.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="16.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6036,24 +6036,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="78" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="78" width="19.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="78" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="78" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="78" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="78" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="78" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" style="78" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="78" width="18.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="78" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="78" width="14.42578125" collapsed="true"/>
-    <col min="13" max="14" style="78" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="78" width="13.140625" collapsed="true"/>
-    <col min="16" max="17" style="78" width="9.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="78" width="9.85546875" collapsed="true"/>
-    <col min="19" max="19" style="78" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="78" width="36.5703125" collapsed="true"/>
-    <col min="21" max="16384" style="78" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23" style="78" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="78" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" style="78" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" style="78" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" style="78" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" style="78" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="78" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="78" collapsed="1"/>
+    <col min="9" max="9" width="18.42578125" style="78" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="78" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" style="78" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="9.140625" style="78" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="78" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="9.140625" style="78" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" style="78" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="78" collapsed="1"/>
+    <col min="20" max="20" width="36.5703125" style="78" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="78" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
@@ -6323,16 +6323,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="54" width="20.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="54" width="12.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="54" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="54" width="20.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="54" width="21.0" collapsed="true"/>
-    <col min="6" max="10" style="54" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="54" width="13.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="54" width="19.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="54" width="9.140625" collapsed="true"/>
-    <col min="14" max="16384" style="54" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.28515625" style="54" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" style="54" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="54" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.28515625" style="54" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" style="54" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="9.140625" style="54" collapsed="1"/>
+    <col min="11" max="11" width="13.85546875" style="54" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.28515625" style="54" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="54" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="54" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6610,24 +6610,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="51" width="17.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="51" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="51" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="51" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="51" width="21.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="51" width="24.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="51" width="21.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="51" width="18.0" collapsed="true"/>
-    <col min="9" max="9" style="51" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="51" width="31.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="51" width="12.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="51" width="10.85546875" collapsed="true"/>
-    <col min="13" max="13" style="51" width="9.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="51" width="12.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="51" width="15.5703125" collapsed="true"/>
-    <col min="16" max="28" style="51" width="9.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="51" width="12.7109375" collapsed="true"/>
-    <col min="30" max="16384" style="51" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.7109375" style="51" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.42578125" style="51" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" style="51" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" style="51" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.28515625" style="51" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" style="51" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21" style="51" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18" style="51" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="51" collapsed="1"/>
+    <col min="10" max="10" width="31.7109375" style="51" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="51" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" style="51" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="51" collapsed="1"/>
+    <col min="14" max="14" width="12.85546875" style="51" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.5703125" style="51" customWidth="1" collapsed="1"/>
+    <col min="16" max="28" width="9.140625" style="51" collapsed="1"/>
+    <col min="29" max="29" width="12.7109375" style="51" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.140625" style="51" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -7178,24 +7178,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="33" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="33" width="19.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="33" width="19.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="33" width="24.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="33" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="33" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="33" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" style="33" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="33" width="18.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="33" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="33" width="14.42578125" collapsed="true"/>
-    <col min="13" max="14" style="33" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="33" width="13.140625" collapsed="true"/>
-    <col min="16" max="17" style="33" width="9.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="33" width="9.85546875" collapsed="true"/>
-    <col min="19" max="19" style="33" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="33" width="36.5703125" collapsed="true"/>
-    <col min="21" max="16384" style="33" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23" style="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5703125" style="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" style="33" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" style="33" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" style="33" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="33" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="33" collapsed="1"/>
+    <col min="9" max="9" width="18.42578125" style="33" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="33" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" style="33" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="9.140625" style="33" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="9.140625" style="33" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" style="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="33" collapsed="1"/>
+    <col min="20" max="20" width="36.5703125" style="33" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="33" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
@@ -7464,12 +7464,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -7717,27 +7717,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="66" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="66" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="66" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="66" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="66" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="66" width="25.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="66" width="23.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="66" width="14.5703125" collapsed="true"/>
-    <col min="9" max="9" style="66" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="66" width="23.0" collapsed="true"/>
-    <col min="11" max="12" style="66" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="66" width="12.7109375" collapsed="true"/>
-    <col min="14" max="14" style="66" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="66" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="66" width="15.140625" collapsed="true"/>
-    <col min="17" max="23" style="66" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="66" width="16.7109375" collapsed="true"/>
-    <col min="25" max="28" style="66" width="9.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="66" width="19.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="66" width="16.0" collapsed="true"/>
-    <col min="31" max="16384" style="66" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="66" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="66" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" style="66" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" style="66" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" style="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.5703125" style="66" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="66" collapsed="1"/>
+    <col min="10" max="10" width="23" style="66" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="9.140625" style="66" collapsed="1"/>
+    <col min="13" max="13" width="12.7109375" style="66" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="66" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="66" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.140625" style="66" customWidth="1" collapsed="1"/>
+    <col min="17" max="23" width="9.140625" style="66" collapsed="1"/>
+    <col min="24" max="24" width="16.7109375" style="66" customWidth="1" collapsed="1"/>
+    <col min="25" max="28" width="9.140625" style="66" collapsed="1"/>
+    <col min="29" max="29" width="19.85546875" style="66" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="16" style="66" customWidth="1" collapsed="1"/>
+    <col min="31" max="16384" width="9.140625" style="66" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -8337,18 +8337,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" style="72" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="72" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" style="72" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="72" width="17.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="72" width="20.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="72" width="16.5703125" collapsed="true"/>
-    <col min="8" max="9" style="72" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="72" width="23.5703125" collapsed="true"/>
-    <col min="11" max="14" style="72" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="72" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="72" width="13.140625" collapsed="true"/>
-    <col min="17" max="16384" style="72" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="9.140625" style="72" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" style="72" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="72" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" style="72" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.7109375" style="72" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="9.140625" style="72" collapsed="1"/>
+    <col min="10" max="10" width="23.5703125" style="72" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="9.140625" style="72" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="72" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.140625" style="72" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9.140625" style="72" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -8667,7 +8667,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8722,20 +8722,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="74" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="74" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="74" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" style="74" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="74" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="74" width="25.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="74" width="18.42578125" collapsed="true"/>
-    <col min="8" max="9" style="74" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="74" width="27.42578125" collapsed="true"/>
-    <col min="11" max="14" style="74" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="74" width="13.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="74" width="14.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="74" width="17.140625" collapsed="true"/>
-    <col min="18" max="16384" style="74" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="74" collapsed="1"/>
+    <col min="5" max="5" width="20" style="74" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="9.140625" style="74" collapsed="1"/>
+    <col min="10" max="10" width="27.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="9.140625" style="74" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="74" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9.140625" style="74" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -8994,24 +8994,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="43" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="43" width="14.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="43" width="16.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="43" width="21.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="43" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="43" width="29.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="43" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" style="43" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="43" width="18.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="43" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="43" width="14.42578125" collapsed="true"/>
-    <col min="13" max="14" style="43" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="43" width="13.11328125" collapsed="true"/>
-    <col min="16" max="17" style="43" width="9.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="43" width="9.85546875" collapsed="true"/>
-    <col min="19" max="19" style="43" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="43" width="36.5703125" collapsed="true"/>
-    <col min="21" max="16384" style="43" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" style="43" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" style="43" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" style="43" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" style="43" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="43" collapsed="1"/>
+    <col min="9" max="9" width="18.42578125" style="43" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" style="43" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.42578125" style="43" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="9.140625" style="43" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="9.140625" style="43" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" style="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="43" collapsed="1"/>
+    <col min="20" max="20" width="36.5703125" style="43" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="43" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -9118,7 +9118,7 @@
         <v>462</v>
       </c>
       <c r="O2" s="90" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="P2" s="86" t="s">
         <v>184</v>
@@ -9266,22 +9266,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -9534,24 +9534,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="74" width="23.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="5" width="15.28515625" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" style="5" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="5" width="11.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="30.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="5" width="21.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="14.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="5" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
-    <col min="13" max="13" style="5" width="9.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="5" width="13.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="5" width="15.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="18" max="18" style="5" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="5" width="12.109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="5" width="11.5703125" collapsed="true"/>
-    <col min="21" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.140625" style="5" collapsed="1"/>
+    <col min="14" max="14" width="13.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.85546875" style="5" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="5" collapsed="1"/>
+    <col min="19" max="19" width="12.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="21" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="R3" s="133"/>
       <c r="S3" s="133" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T3" s="133"/>
     </row>
@@ -9932,10 +9932,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10024,34 +10024,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="14" max="14" style="2" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="5" width="21.140625" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" style="2" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" style="2" collapsed="1"/>
+    <col min="15" max="15" width="21.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="16" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
@@ -10639,33 +10639,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView topLeftCell="AF1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="74" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="74" width="10.42578125" collapsed="true"/>
-    <col min="3" max="5" style="74" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="74" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="74" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="74" width="17.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="74" width="16.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="74" width="13.0" collapsed="true"/>
-    <col min="11" max="29" style="74" width="9.140625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="74" width="16.28515625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="74" width="17.7109375" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="74" width="20.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="74" width="24.5703125" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="74" width="26.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="74" width="18.7109375" collapsed="true"/>
-    <col min="36" max="37" style="74" width="9.140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" style="74" width="13.28515625" collapsed="true"/>
-    <col min="39" max="41" style="74" width="9.140625" collapsed="true"/>
-    <col min="42" max="42" customWidth="true" style="74" width="15.7109375" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="74" width="13.0" collapsed="true"/>
-    <col min="44" max="16384" style="74" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9.140625" style="74" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.85546875" style="74" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" style="74" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" style="74" customWidth="1" collapsed="1"/>
+    <col min="11" max="29" width="9.140625" style="74" collapsed="1"/>
+    <col min="30" max="30" width="16.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="20.140625" style="74" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="24.5703125" style="74" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26" style="74" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="9.140625" style="74" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" style="74" customWidth="1" collapsed="1"/>
+    <col min="39" max="41" width="9.140625" style="74" collapsed="1"/>
+    <col min="42" max="42" width="15.7109375" style="74" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13" style="74" customWidth="1" collapsed="1"/>
+    <col min="44" max="16384" width="9.140625" style="74" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -10802,61 +10802,61 @@
         <v>557</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D2" s="144" t="s">
         <v>580</v>
       </c>
       <c r="E2" s="144" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F2" s="144" t="s">
         <v>557</v>
       </c>
       <c r="G2" s="144" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H2" s="144" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I2" s="144" t="s">
         <v>580</v>
       </c>
       <c r="J2" s="144" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K2" s="144" t="s">
         <v>557</v>
       </c>
       <c r="L2" s="144" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M2" s="144" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N2" s="144" t="s">
         <v>580</v>
       </c>
       <c r="O2" s="144" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P2" s="144" t="s">
         <v>557</v>
       </c>
       <c r="Q2" s="144" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="R2" s="144" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S2" s="144" t="s">
         <v>580</v>
       </c>
       <c r="T2" s="144" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>138</v>
